--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM25.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>2.878458762934539</v>
+        <v>0.9001854969375009</v>
       </c>
       <c r="C2">
-        <v>19.29312491236513</v>
+        <v>6.033573056648179</v>
       </c>
       <c r="D2">
-        <v>0.01528865164988228</v>
+        <v>0.004781247054907561</v>
       </c>
       <c r="E2">
-        <v>1.454223082704896</v>
+        <v>0.4547817551598747</v>
       </c>
       <c r="F2">
-        <v>4.274754830663914</v>
+        <v>1.336851634311458</v>
       </c>
       <c r="G2">
-        <v>6.944727245459195</v>
+        <v>2.171836827071911</v>
       </c>
       <c r="H2">
-        <v>0.4207921284563023</v>
+        <v>0.1315950661303392</v>
       </c>
       <c r="I2">
-        <v>3.11874939826272</v>
+        <v>0.9753320120648559</v>
       </c>
       <c r="J2">
-        <v>4.807542184502057</v>
+        <v>1.503471165239827</v>
       </c>
       <c r="K2">
-        <v>6.367256072547888</v>
+        <v>1.991243246421033</v>
       </c>
       <c r="L2">
-        <v>17.04402110970678</v>
+        <v>5.330206848894702</v>
       </c>
       <c r="M2">
-        <v>10.72499613714941</v>
+        <v>3.354046999627689</v>
       </c>
       <c r="N2">
-        <v>0.2212284097011225</v>
+        <v>0.06918515161234116</v>
       </c>
       <c r="O2">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="P2">
-        <v>78.48460124217745</v>
+        <v>24.54462807697267</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>2.845749004264828</v>
+        <v>0.8899561162904839</v>
       </c>
       <c r="C3">
-        <v>19.0738848565428</v>
+        <v>5.965009726458995</v>
       </c>
       <c r="D3">
-        <v>0.01624419237799993</v>
+        <v>0.005080074995839285</v>
       </c>
       <c r="E3">
-        <v>1.545112025373952</v>
+        <v>0.4832056148573668</v>
       </c>
       <c r="F3">
-        <v>4.885434092187331</v>
+        <v>1.527830439213096</v>
       </c>
       <c r="G3">
-        <v>7.93683113766765</v>
+        <v>2.482099230939327</v>
       </c>
       <c r="H3">
-        <v>0.4072181888286796</v>
+        <v>0.1273500639971025</v>
       </c>
       <c r="I3">
-        <v>3.018144578963924</v>
+        <v>0.9438696890950217</v>
       </c>
       <c r="J3">
-        <v>4.849165926359218</v>
+        <v>1.51648823160554</v>
       </c>
       <c r="K3">
-        <v>6.422383830751765</v>
+        <v>2.008483447688747</v>
       </c>
       <c r="L3">
-        <v>19.15255980369112</v>
+        <v>5.989613881747657</v>
       </c>
       <c r="M3">
-        <v>12.05179978298233</v>
+        <v>3.768980649066168</v>
       </c>
       <c r="N3">
-        <v>0.2342418455658944</v>
+        <v>0.0732548664130671</v>
       </c>
       <c r="O3">
-        <v>0.9735229229014749</v>
+        <v>0.3044515444920559</v>
       </c>
       <c r="P3">
-        <v>83.41229218845898</v>
+        <v>26.08567357686047</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>3.217004765166044</v>
+        <v>1.006059586634128</v>
       </c>
       <c r="C4">
-        <v>21.56225949012624</v>
+        <v>6.743203524106232</v>
       </c>
       <c r="D4">
-        <v>0.01656270595403914</v>
+        <v>0.005179684309483191</v>
       </c>
       <c r="E4">
-        <v>1.57540833959697</v>
+        <v>0.4926802347565309</v>
       </c>
       <c r="F4">
-        <v>5.31290957525372</v>
+        <v>1.661515602644241</v>
       </c>
       <c r="G4">
-        <v>8.631303862213572</v>
+        <v>2.699282913646518</v>
       </c>
       <c r="H4">
-        <v>0.4750878869667927</v>
+        <v>0.1485750746632863</v>
       </c>
       <c r="I4">
-        <v>3.52116867545791</v>
+        <v>1.101181303944192</v>
       </c>
       <c r="J4">
-        <v>5.723264505359592</v>
+        <v>1.789846625285508</v>
       </c>
       <c r="K4">
-        <v>7.580066753033201</v>
+        <v>2.370527674310754</v>
       </c>
       <c r="L4">
-        <v>14.58405930005838</v>
+        <v>4.56089864389959</v>
       </c>
       <c r="M4">
-        <v>9.177058550344343</v>
+        <v>2.869957741949467</v>
       </c>
       <c r="N4">
-        <v>0.1301343586477191</v>
+        <v>0.04069714800725949</v>
       </c>
       <c r="O4">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="P4">
-        <v>82.04713483645712</v>
+        <v>25.65874550509722</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>3.472140882789787</v>
+        <v>1.08584875568086</v>
       </c>
       <c r="C5">
-        <v>23.27233192554042</v>
+        <v>7.277997499581867</v>
       </c>
       <c r="D5">
-        <v>0.01051094800929407</v>
+        <v>0.003287107350248949</v>
       </c>
       <c r="E5">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="F5">
-        <v>5.435045427558407</v>
+        <v>1.699711363624569</v>
       </c>
       <c r="G5">
-        <v>8.829724640655263</v>
+        <v>2.761335394420001</v>
       </c>
       <c r="H5">
-        <v>0.5022357662220382</v>
+        <v>0.1570650789297598</v>
       </c>
       <c r="I5">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="J5">
-        <v>4.974037151930699</v>
+        <v>1.555539430702678</v>
       </c>
       <c r="K5">
-        <v>6.587767105363397</v>
+        <v>2.060204051491891</v>
       </c>
       <c r="L5">
-        <v>9.83984723859361</v>
+        <v>3.077232819980448</v>
       </c>
       <c r="M5">
-        <v>6.191750347220278</v>
+        <v>1.936357030712893</v>
       </c>
       <c r="N5">
-        <v>0.0910940510534034</v>
+        <v>0.02848800360508164</v>
       </c>
       <c r="O5">
-        <v>0.378592247795018</v>
+        <v>0.1183978228580217</v>
       </c>
       <c r="P5">
-        <v>74.30723441614674</v>
+        <v>23.23823276549459</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>4.216287892525705</v>
+        <v>1.318567165400498</v>
       </c>
       <c r="C6">
-        <v>28.26004319549846</v>
+        <v>8.837813261385801</v>
       </c>
       <c r="D6">
-        <v>0.01560716522592149</v>
+        <v>0.004880856368551469</v>
       </c>
       <c r="E6">
-        <v>1.484519396927914</v>
+        <v>0.4642563750590387</v>
       </c>
       <c r="F6">
-        <v>3.847279347597522</v>
+        <v>1.203166470880312</v>
       </c>
       <c r="G6">
-        <v>6.250254520913275</v>
+        <v>1.954653144364719</v>
       </c>
       <c r="H6">
-        <v>0.9366018343059632</v>
+        <v>0.2929051471933358</v>
       </c>
       <c r="I6">
-        <v>6.941732531617025</v>
+        <v>2.170900284918551</v>
       </c>
       <c r="J6">
-        <v>3.558829928787237</v>
+        <v>1.112959174268443</v>
       </c>
       <c r="K6">
-        <v>4.713423326431553</v>
+        <v>1.474037208389595</v>
       </c>
       <c r="L6">
-        <v>5.447058292792889</v>
+        <v>1.703468168203461</v>
       </c>
       <c r="M6">
-        <v>3.427576085068368</v>
+        <v>1.071911927716066</v>
       </c>
       <c r="N6">
-        <v>0.27328215316021</v>
+        <v>0.08546401081524491</v>
       </c>
       <c r="O6">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="P6">
-        <v>70.5082724142371</v>
+        <v>22.05017666353768</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>4.209745940791765</v>
+        <v>1.316521289271095</v>
       </c>
       <c r="C7">
-        <v>28.21619518433399</v>
+        <v>8.824100595347963</v>
       </c>
       <c r="D7">
-        <v>0.008599866553058784</v>
+        <v>0.002689451468385503</v>
       </c>
       <c r="E7">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="F7">
-        <v>2.748056676855372</v>
+        <v>0.8594046220573663</v>
       </c>
       <c r="G7">
-        <v>4.464467514938054</v>
+        <v>1.396180817403372</v>
       </c>
       <c r="H7">
-        <v>1.031619411699322</v>
+        <v>0.322620162125993</v>
       </c>
       <c r="I7">
-        <v>7.645966266708605</v>
+        <v>2.391136545707388</v>
       </c>
       <c r="J7">
-        <v>2.039563351000873</v>
+        <v>0.6378362519199265</v>
       </c>
       <c r="K7">
-        <v>2.701260151990013</v>
+        <v>0.844769862118014</v>
       </c>
       <c r="L7">
-        <v>2.63567336748043</v>
+        <v>0.8242587910661915</v>
       </c>
       <c r="M7">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="N7">
-        <v>0.156161230377263</v>
+        <v>0.04883657760871139</v>
       </c>
       <c r="O7">
-        <v>0.6490152819343167</v>
+        <v>0.2029676963280372</v>
       </c>
       <c r="P7">
-        <v>58.9828292859757</v>
+        <v>18.44580446149797</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>2.940607304406989</v>
+        <v>0.9196213201668333</v>
       </c>
       <c r="C8">
-        <v>19.70968101842756</v>
+        <v>6.163843384007623</v>
       </c>
       <c r="D8">
-        <v>0.008918380129098</v>
+        <v>0.002789060782029411</v>
       </c>
       <c r="E8">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="F8">
-        <v>2.381649119941323</v>
+        <v>0.7448173391163841</v>
       </c>
       <c r="G8">
-        <v>3.86920517961298</v>
+        <v>1.210023375082922</v>
       </c>
       <c r="H8">
-        <v>0.6651230417535102</v>
+        <v>0.2080051045286008</v>
       </c>
       <c r="I8">
-        <v>4.929636145641075</v>
+        <v>1.541653825521869</v>
       </c>
       <c r="J8">
-        <v>1.560890319643525</v>
+        <v>0.4881399887142296</v>
       </c>
       <c r="K8">
-        <v>2.067290932645418</v>
+        <v>0.6465075475392963</v>
       </c>
       <c r="L8">
-        <v>3.162808040976515</v>
+        <v>0.9891105492794292</v>
       </c>
       <c r="M8">
-        <v>1.990205468749376</v>
+        <v>0.6224004741577157</v>
       </c>
       <c r="N8">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O8">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P8">
-        <v>44.20140979286452</v>
+        <v>13.82318501556825</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>2.400896286356762</v>
+        <v>0.750836539491052</v>
       </c>
       <c r="C9">
-        <v>16.0922200973591</v>
+        <v>5.032548435886093</v>
       </c>
       <c r="D9">
-        <v>0.007962839400980356</v>
+        <v>0.002490232841097689</v>
       </c>
       <c r="E9">
-        <v>0.7574078555754664</v>
+        <v>0.2368654974791014</v>
       </c>
       <c r="F9">
-        <v>1.709901932265565</v>
+        <v>0.5347406537245835</v>
       </c>
       <c r="G9">
-        <v>2.777890898183678</v>
+        <v>0.8687347308287645</v>
       </c>
       <c r="H9">
-        <v>0.9908975928164536</v>
+        <v>0.3098851557262828</v>
       </c>
       <c r="I9">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="J9">
-        <v>0.8949104499289544</v>
+        <v>0.2798669268628249</v>
       </c>
       <c r="K9">
-        <v>1.185246801383373</v>
+        <v>0.3706643272558632</v>
       </c>
       <c r="L9">
-        <v>1.757115578320286</v>
+        <v>0.549505860710794</v>
       </c>
       <c r="M9">
-        <v>1.105669704860764</v>
+        <v>0.345778041198731</v>
       </c>
       <c r="N9">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O9">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P9">
-        <v>37.22556597334149</v>
+        <v>11.64161704728726</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>1.776139895765289</v>
+        <v>0.555455369133026</v>
       </c>
       <c r="C10">
-        <v>11.90473503115257</v>
+        <v>3.722988829272683</v>
       </c>
       <c r="D10">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E10">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F10">
-        <v>1.343494375351516</v>
+        <v>0.4201533707836013</v>
       </c>
       <c r="G10">
-        <v>2.182628562858604</v>
+        <v>0.6825772885083147</v>
       </c>
       <c r="H10">
-        <v>0.6515491021258875</v>
+        <v>0.2037601023953639</v>
       </c>
       <c r="I10">
-        <v>4.829031326342276</v>
+        <v>1.510191502552035</v>
       </c>
       <c r="J10">
-        <v>0.8116629662146325</v>
+        <v>0.2538327941313994</v>
       </c>
       <c r="K10">
-        <v>1.074991284975617</v>
+        <v>0.3361839247204341</v>
       </c>
       <c r="L10">
-        <v>1.757115578320286</v>
+        <v>0.549505860710794</v>
       </c>
       <c r="M10">
-        <v>1.105669704860764</v>
+        <v>0.345778041198731</v>
       </c>
       <c r="N10">
-        <v>0.05205374345908764</v>
+        <v>0.0162788592029038</v>
       </c>
       <c r="O10">
-        <v>0.2163384273114389</v>
+        <v>0.06765589877601241</v>
       </c>
       <c r="P10">
-        <v>28.256476899121</v>
+        <v>8.836697967215841</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>1.36236144859345</v>
+        <v>0.4260537039482603</v>
       </c>
       <c r="C11">
-        <v>9.131348325000085</v>
+        <v>2.855662702379506</v>
       </c>
       <c r="D11">
-        <v>0.00923689370513721</v>
+        <v>0.002888670095673318</v>
       </c>
       <c r="E11">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="F11">
-        <v>1.343494375351516</v>
+        <v>0.4201533707836013</v>
       </c>
       <c r="G11">
-        <v>2.182628562858604</v>
+        <v>0.6825772885083147</v>
       </c>
       <c r="H11">
-        <v>0.2986266718076984</v>
+        <v>0.09339004693120849</v>
       </c>
       <c r="I11">
-        <v>2.213306024573543</v>
+        <v>0.6921711053363493</v>
       </c>
       <c r="J11">
-        <v>0.8324748371432132</v>
+        <v>0.2603413273142558</v>
       </c>
       <c r="K11">
-        <v>1.102555164077556</v>
+        <v>0.3448040253542914</v>
       </c>
       <c r="L11">
-        <v>2.63567336748043</v>
+        <v>0.8242587910661915</v>
       </c>
       <c r="M11">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="N11">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O11">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P11">
-        <v>23.85009746842782</v>
+        <v>7.458683139075692</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.8390053098780792</v>
+        <v>0.2623836135959873</v>
       </c>
       <c r="C12">
-        <v>5.623507431842789</v>
+        <v>1.758649419352565</v>
       </c>
       <c r="D12">
-        <v>0.008599866553058784</v>
+        <v>0.002689451468385503</v>
       </c>
       <c r="E12">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="F12">
-        <v>0.3053396307617082</v>
+        <v>0.09548940245081849</v>
       </c>
       <c r="G12">
-        <v>0.4960519461042281</v>
+        <v>0.1551312019337079</v>
       </c>
       <c r="H12">
-        <v>0.1085915170209812</v>
+        <v>0.033960017065894</v>
       </c>
       <c r="I12">
-        <v>0.8048385543903798</v>
+        <v>0.2516985837586725</v>
       </c>
       <c r="J12">
-        <v>0.4994849022859278</v>
+        <v>0.1562047963885535</v>
       </c>
       <c r="K12">
-        <v>0.6615330984465339</v>
+        <v>0.2068824152125748</v>
       </c>
       <c r="L12">
-        <v>2.811384925312458</v>
+        <v>0.8792093771372705</v>
       </c>
       <c r="M12">
-        <v>1.769071527777222</v>
+        <v>0.5532448659179696</v>
       </c>
       <c r="P12">
-        <v>14.74540919439487</v>
+        <v>4.61135788155983</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.5233561387153705</v>
+        <v>0.163670090352273</v>
       </c>
       <c r="C13">
-        <v>3.507840893157296</v>
+        <v>1.097013283026942</v>
       </c>
       <c r="D13">
-        <v>0.01051094800929407</v>
+        <v>0.003287107350248949</v>
       </c>
       <c r="E13">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="F13">
-        <v>0.2442717046093666</v>
+        <v>0.07639152196065477</v>
       </c>
       <c r="G13">
-        <v>0.3968415568833825</v>
+        <v>0.1241049615469664</v>
       </c>
       <c r="H13">
-        <v>0.05429575851049061</v>
+        <v>0.016980008532947</v>
       </c>
       <c r="I13">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="J13">
-        <v>0.6659798697145706</v>
+        <v>0.2082730618514046</v>
       </c>
       <c r="K13">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="L13">
-        <v>2.63567336748043</v>
+        <v>0.8242587910661915</v>
       </c>
       <c r="M13">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="N13">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O13">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P13">
-        <v>12.04861461488083</v>
+        <v>3.767984545815637</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.3287330746305922</v>
+        <v>0.1028052755025215</v>
       </c>
       <c r="C14">
-        <v>2.203362561014426</v>
+        <v>0.6890614684012973</v>
       </c>
       <c r="D14">
-        <v>0.008599866553058784</v>
+        <v>0.002689451468385503</v>
       </c>
       <c r="E14">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="F14">
-        <v>0.2442717046093666</v>
+        <v>0.07639152196065477</v>
       </c>
       <c r="G14">
-        <v>0.3968415568833825</v>
+        <v>0.1241049615469664</v>
       </c>
       <c r="H14">
-        <v>0.04072181888286797</v>
+        <v>0.01273500639971025</v>
       </c>
       <c r="I14">
-        <v>0.3018144578963923</v>
+        <v>0.09438696890950217</v>
       </c>
       <c r="J14">
-        <v>0.561920515071669</v>
+        <v>0.1757303959371226</v>
       </c>
       <c r="K14">
-        <v>0.7442247357523505</v>
+        <v>0.2327427171141467</v>
       </c>
       <c r="L14">
-        <v>5.622769850624916</v>
+        <v>1.758418754274541</v>
       </c>
       <c r="M14">
-        <v>3.538143055554445</v>
+        <v>1.106489731835939</v>
       </c>
       <c r="N14">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O14">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P14">
-        <v>14.8765017241876</v>
+        <v>4.652354680122946</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,43 +1124,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.2436877020893444</v>
+        <v>0.07620888582027706</v>
       </c>
       <c r="C15">
-        <v>1.633338415876366</v>
+        <v>0.5107968099094196</v>
       </c>
       <c r="D15">
-        <v>0.005414730792666641</v>
+        <v>0.001693358331946428</v>
       </c>
       <c r="E15">
-        <v>0.5150373417913172</v>
+        <v>0.161068538285789</v>
       </c>
       <c r="F15">
-        <v>0.1832037784570248</v>
+        <v>0.0572936414704911</v>
       </c>
       <c r="G15">
-        <v>0.2976311676625368</v>
+        <v>0.09307872116022477</v>
       </c>
       <c r="J15">
-        <v>0.374613676714446</v>
+        <v>0.1171535972914151</v>
       </c>
       <c r="K15">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="L15">
-        <v>4.392788945800716</v>
+        <v>1.373764651776985</v>
       </c>
       <c r="M15">
-        <v>2.76417426215191</v>
+        <v>0.8644451029968273</v>
       </c>
       <c r="N15">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O15">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P15">
-        <v>11.04023593055649</v>
+        <v>3.452632497442265</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,49 +1168,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.2567716055572288</v>
+        <v>0.08030063807908386</v>
       </c>
       <c r="C16">
-        <v>1.721034438205298</v>
+        <v>0.5382221419850933</v>
       </c>
       <c r="D16">
-        <v>0.002866622184352927</v>
+        <v>0.0008964838227951677</v>
       </c>
       <c r="E16">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="F16">
-        <v>0.6106792615234163</v>
+        <v>0.190978804901637</v>
       </c>
       <c r="G16">
-        <v>0.9921038922084563</v>
+        <v>0.3102624038674159</v>
       </c>
       <c r="H16">
-        <v>0.06786969813811328</v>
+        <v>0.02122501066618375</v>
       </c>
       <c r="I16">
-        <v>0.5030240964939872</v>
+        <v>0.1573116148491703</v>
       </c>
       <c r="J16">
-        <v>0.4370492895001868</v>
+        <v>0.1366791968399843</v>
       </c>
       <c r="K16">
-        <v>0.5788414611407171</v>
+        <v>0.181022113311003</v>
       </c>
       <c r="L16">
-        <v>5.095635177128834</v>
+        <v>1.593566996061302</v>
       </c>
       <c r="M16">
-        <v>3.206442144096216</v>
+        <v>1.00275631947632</v>
       </c>
       <c r="N16">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O16">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P16">
-        <v>13.81208255687661</v>
+        <v>4.319476992447194</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,49 +1218,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.5871401681213063</v>
+        <v>0.1836173826139563</v>
       </c>
       <c r="C17">
-        <v>3.935359002010842</v>
+        <v>1.230711776895851</v>
       </c>
       <c r="D17">
-        <v>0.002866622184352927</v>
+        <v>0.0008964838227951677</v>
       </c>
       <c r="E17">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="F17">
-        <v>0.6106792615234163</v>
+        <v>0.190978804901637</v>
       </c>
       <c r="G17">
-        <v>0.9921038922084563</v>
+        <v>0.3102624038674159</v>
       </c>
       <c r="H17">
-        <v>0.04072181888286797</v>
+        <v>0.01273500639971025</v>
       </c>
       <c r="I17">
-        <v>0.3018144578963923</v>
+        <v>0.09438696890950217</v>
       </c>
       <c r="J17">
-        <v>0.7908510952860526</v>
+        <v>0.247324260948543</v>
       </c>
       <c r="K17">
-        <v>1.047427405873679</v>
+        <v>0.3275638240865769</v>
       </c>
       <c r="L17">
-        <v>6.852750755449118</v>
+        <v>2.143072856772097</v>
       </c>
       <c r="M17">
-        <v>4.312111848956981</v>
+        <v>1.348534360675051</v>
       </c>
       <c r="N17">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O17">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P17">
-        <v>19.8806892417859</v>
+        <v>6.217323087975071</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1268,49 +1268,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>1.252783757049918</v>
+        <v>0.3917852787807532</v>
       </c>
       <c r="C18">
-        <v>8.396894137995279</v>
+        <v>2.625975546245741</v>
       </c>
       <c r="D18">
-        <v>0.004777703640588213</v>
+        <v>0.001494139704658613</v>
       </c>
       <c r="E18">
-        <v>0.4544447133452799</v>
+        <v>0.1421192984874608</v>
       </c>
       <c r="F18">
-        <v>1.282426449199174</v>
+        <v>0.4010554902934375</v>
       </c>
       <c r="G18">
-        <v>2.083418173637758</v>
+        <v>0.6515510481215732</v>
       </c>
       <c r="H18">
-        <v>0.4615139473391703</v>
+        <v>0.1443300725300495</v>
       </c>
       <c r="I18">
-        <v>3.420563856159113</v>
+        <v>1.069718980974357</v>
       </c>
       <c r="J18">
-        <v>1.831444641715069</v>
+        <v>0.5727509200913627</v>
       </c>
       <c r="K18">
-        <v>2.425621360970624</v>
+        <v>0.758568855779441</v>
       </c>
       <c r="L18">
-        <v>8.961289449433458</v>
+        <v>2.80247988962505</v>
       </c>
       <c r="M18">
-        <v>5.638915494789897</v>
+        <v>1.763468010113528</v>
       </c>
       <c r="N18">
-        <v>0.07808061518863148</v>
+        <v>0.0244182888043557</v>
       </c>
       <c r="O18">
-        <v>0.3245076409671583</v>
+        <v>0.1014838481640186</v>
       </c>
       <c r="P18">
-        <v>36.61668194143112</v>
+        <v>11.45119966771579</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,49 +1318,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>2.185011879136673</v>
+        <v>0.6833226272207396</v>
       </c>
       <c r="C19">
-        <v>14.64523572893171</v>
+        <v>4.580030456637481</v>
       </c>
       <c r="D19">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E19">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F19">
-        <v>3.358735938378789</v>
+        <v>1.050383426959004</v>
       </c>
       <c r="G19">
-        <v>5.45657140714651</v>
+        <v>1.706443221270787</v>
       </c>
       <c r="H19">
-        <v>1.262376385368907</v>
+        <v>0.3947851983910179</v>
       </c>
       <c r="I19">
-        <v>9.356248194788163</v>
+        <v>2.925996036194567</v>
       </c>
       <c r="J19">
-        <v>3.371523090430014</v>
+        <v>1.054382375622736</v>
       </c>
       <c r="K19">
-        <v>4.465348414514104</v>
+        <v>1.39645630268488</v>
       </c>
       <c r="L19">
-        <v>12.65123216390606</v>
+        <v>3.956442197117717</v>
       </c>
       <c r="M19">
-        <v>7.960821874997503</v>
+        <v>2.489601896630863</v>
       </c>
       <c r="N19">
-        <v>0.1301343586477191</v>
+        <v>0.04069714800725949</v>
       </c>
       <c r="O19">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="P19">
-        <v>65.9351524049078</v>
+        <v>20.62001675950762</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>3.720735048679588</v>
+        <v>1.16359204859819</v>
       </c>
       <c r="C20">
-        <v>24.93855634979013</v>
+        <v>7.799078809019661</v>
       </c>
       <c r="D20">
-        <v>0.006370271520784286</v>
+        <v>0.001992186272878151</v>
       </c>
       <c r="E20">
-        <v>0.6059262844603731</v>
+        <v>0.1894923979832812</v>
       </c>
       <c r="F20">
-        <v>4.152618978359229</v>
+        <v>1.298655873331131</v>
       </c>
       <c r="G20">
-        <v>6.746306467017504</v>
+        <v>2.109784346298428</v>
       </c>
       <c r="H20">
-        <v>1.235228506113661</v>
+        <v>0.3862951941245444</v>
       </c>
       <c r="I20">
-        <v>9.155038556190565</v>
+        <v>2.8630713902549</v>
       </c>
       <c r="J20">
-        <v>3.829384250858781</v>
+        <v>1.197570105645576</v>
       </c>
       <c r="K20">
-        <v>5.071753754756759</v>
+        <v>1.58609851662974</v>
       </c>
       <c r="L20">
-        <v>17.39544422537083</v>
+        <v>5.440108021036862</v>
       </c>
       <c r="M20">
-        <v>10.94613007812157</v>
+        <v>3.423202607867435</v>
       </c>
       <c r="N20">
-        <v>0.2602687172954382</v>
+        <v>0.08139429601451899</v>
       </c>
       <c r="O20">
-        <v>1.081692136557195</v>
+        <v>0.3382794938800621</v>
       </c>
       <c r="P20">
-        <v>89.14545362509241</v>
+        <v>27.8786152869572</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>3.92190006449831</v>
+        <v>1.226502739577346</v>
       </c>
       <c r="C21">
-        <v>26.28688269309748</v>
+        <v>8.22074328968314</v>
       </c>
       <c r="D21">
-        <v>0.009555407281176426</v>
+        <v>0.002988279409317227</v>
       </c>
       <c r="E21">
-        <v>0.9088894266905598</v>
+        <v>0.2842385969749217</v>
       </c>
       <c r="F21">
-        <v>3.297668012226446</v>
+        <v>1.031285546468839</v>
       </c>
       <c r="G21">
-        <v>5.357361017925665</v>
+        <v>1.675416980884046</v>
       </c>
       <c r="H21">
-        <v>0.8551581965402273</v>
+        <v>0.2674351343939153</v>
       </c>
       <c r="I21">
-        <v>6.338103615824239</v>
+        <v>1.982126347099546</v>
       </c>
       <c r="J21">
-        <v>3.309087477644273</v>
+        <v>1.034856776074166</v>
       </c>
       <c r="K21">
-        <v>4.382656777208286</v>
+        <v>1.370596000783308</v>
       </c>
       <c r="L21">
-        <v>14.23263618439432</v>
+        <v>4.45099747175743</v>
       </c>
       <c r="M21">
-        <v>8.955924609372191</v>
+        <v>2.800802133709721</v>
       </c>
       <c r="N21">
-        <v>0.1821881021068068</v>
+        <v>0.05697600721016328</v>
       </c>
       <c r="O21">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="P21">
-        <v>78.79519608040002</v>
+        <v>24.6417609497419</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>3.154856223693592</v>
+        <v>0.986623763404795</v>
       </c>
       <c r="C22">
-        <v>21.14570338406382</v>
+        <v>6.612933196746781</v>
       </c>
       <c r="D22">
-        <v>0.01369608376968621</v>
+        <v>0.004283200486688024</v>
       </c>
       <c r="E22">
-        <v>1.302741511589802</v>
+        <v>0.4074086556640544</v>
       </c>
       <c r="F22">
-        <v>5.740385058320112</v>
+        <v>1.795200766075388</v>
       </c>
       <c r="G22">
-        <v>9.325776586759492</v>
+        <v>2.916466596353709</v>
       </c>
       <c r="H22">
-        <v>0.6651230417535102</v>
+        <v>0.2080051045286008</v>
       </c>
       <c r="I22">
-        <v>4.929636145641075</v>
+        <v>1.541653825521869</v>
       </c>
       <c r="J22">
-        <v>5.556769537930947</v>
+        <v>1.737778359822657</v>
       </c>
       <c r="K22">
-        <v>7.359555720217688</v>
+        <v>2.301566869239895</v>
       </c>
       <c r="L22">
-        <v>25.1267527699801</v>
+        <v>7.857933808164357</v>
       </c>
       <c r="M22">
-        <v>15.81107677950893</v>
+        <v>4.94462598914185</v>
       </c>
       <c r="N22">
-        <v>0.2212284097011225</v>
+        <v>0.06918515161234116</v>
       </c>
       <c r="O22">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="P22">
-        <v>101.2727395690035</v>
+        <v>31.67120285656104</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>2.477764219230583</v>
+        <v>0.7748755840115421</v>
       </c>
       <c r="C23">
-        <v>16.60743422854156</v>
+        <v>5.193672261830677</v>
       </c>
       <c r="D23">
-        <v>0.01369608376968621</v>
+        <v>0.004283200486688024</v>
       </c>
       <c r="E23">
-        <v>1.302741511589802</v>
+        <v>0.4074086556640544</v>
       </c>
       <c r="F23">
-        <v>4.641162387577962</v>
+        <v>1.451438917252441</v>
       </c>
       <c r="G23">
-        <v>7.539989580784269</v>
+        <v>2.357994269392361</v>
       </c>
       <c r="H23">
-        <v>0.4072181888286796</v>
+        <v>0.1273500639971025</v>
       </c>
       <c r="I23">
-        <v>3.018144578963924</v>
+        <v>0.9438696890950217</v>
       </c>
       <c r="J23">
-        <v>5.473522054216628</v>
+        <v>1.711744227091232</v>
       </c>
       <c r="K23">
-        <v>7.249300203809933</v>
+        <v>2.267086466704466</v>
       </c>
       <c r="L23">
-        <v>24.42390653865198</v>
+        <v>7.638131463880034</v>
       </c>
       <c r="M23">
-        <v>15.36880889756462</v>
+        <v>4.806314772662359</v>
       </c>
       <c r="N23">
-        <v>0.1301343586477191</v>
+        <v>0.04069714800725949</v>
       </c>
       <c r="O23">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="P23">
-        <v>89.19466890045594</v>
+        <v>27.89400646701526</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>2.814674733528603</v>
+        <v>0.8802382046758174</v>
       </c>
       <c r="C24">
-        <v>18.86560680351158</v>
+        <v>5.899874562779269</v>
       </c>
       <c r="D24">
-        <v>0.01401459734572543</v>
+        <v>0.004382809800331931</v>
       </c>
       <c r="E24">
-        <v>1.333037825812821</v>
+        <v>0.4168832755632184</v>
       </c>
       <c r="F24">
-        <v>4.824366166034989</v>
+        <v>1.508732558722931</v>
       </c>
       <c r="G24">
-        <v>7.837620748446807</v>
+        <v>2.451072990552585</v>
       </c>
       <c r="H24">
-        <v>0.624401222870642</v>
+        <v>0.1952700981288905</v>
       </c>
       <c r="I24">
-        <v>4.627821687744682</v>
+        <v>1.447266856612366</v>
       </c>
       <c r="J24">
-        <v>5.681640763502429</v>
+        <v>1.776829558919796</v>
       </c>
       <c r="K24">
-        <v>7.524938994829323</v>
+        <v>2.353287473043039</v>
       </c>
       <c r="L24">
-        <v>21.61252161333952</v>
+        <v>6.758922086742766</v>
       </c>
       <c r="M24">
-        <v>13.5997373697874</v>
+        <v>4.253069906744391</v>
       </c>
       <c r="N24">
-        <v>0.27328215316021</v>
+        <v>0.08546401081524491</v>
       </c>
       <c r="O24">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="P24">
-        <v>90.7694414232998</v>
+        <v>28.38648786167471</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>2.700190578184618</v>
+        <v>0.8444353724112581</v>
       </c>
       <c r="C25">
-        <v>18.09826660813342</v>
+        <v>5.659902907117127</v>
       </c>
       <c r="D25">
-        <v>0.01305905661760778</v>
+        <v>0.004083981859400209</v>
       </c>
       <c r="E25">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="F25">
-        <v>3.480871790683471</v>
+        <v>1.088579187939331</v>
       </c>
       <c r="G25">
-        <v>5.654992185588199</v>
+        <v>1.768495702044271</v>
       </c>
       <c r="H25">
-        <v>0.5972533436153967</v>
+        <v>0.186780093862417</v>
       </c>
       <c r="I25">
-        <v>4.426612049147087</v>
+        <v>1.384342210672699</v>
       </c>
       <c r="J25">
-        <v>3.829384250858781</v>
+        <v>1.197570105645576</v>
       </c>
       <c r="K25">
-        <v>5.071753754756759</v>
+        <v>1.58609851662974</v>
       </c>
       <c r="L25">
-        <v>18.97684824585909</v>
+        <v>5.934663295676575</v>
       </c>
       <c r="M25">
-        <v>11.94123281249625</v>
+        <v>3.734402844946294</v>
       </c>
       <c r="N25">
-        <v>0.1691746662420349</v>
+        <v>0.05290629240943735</v>
       </c>
       <c r="O25">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="P25">
-        <v>76.90488811408866</v>
+        <v>24.0506015981019</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>2.71654545751947</v>
+        <v>0.8495500627347666</v>
       </c>
       <c r="C26">
-        <v>18.20788663604458</v>
+        <v>5.694184572211719</v>
       </c>
       <c r="D26">
-        <v>0.01146648873741171</v>
+        <v>0.003585935291180671</v>
       </c>
       <c r="E26">
-        <v>1.090667312028672</v>
+        <v>0.3410863163699059</v>
       </c>
       <c r="F26">
-        <v>3.297668012226446</v>
+        <v>1.031285546468839</v>
       </c>
       <c r="G26">
-        <v>5.357361017925665</v>
+        <v>1.675416980884046</v>
       </c>
       <c r="H26">
-        <v>0.4207921284563023</v>
+        <v>0.1315950661303392</v>
       </c>
       <c r="I26">
-        <v>3.11874939826272</v>
+        <v>0.9753320120648559</v>
       </c>
       <c r="J26">
-        <v>4.869977797287798</v>
+        <v>1.522996764788396</v>
       </c>
       <c r="K26">
-        <v>6.449947709853703</v>
+        <v>2.017103548322605</v>
       </c>
       <c r="L26">
-        <v>19.85540603501924</v>
+        <v>6.209416226031973</v>
       </c>
       <c r="M26">
-        <v>12.49406766492663</v>
+        <v>3.907291865545659</v>
       </c>
       <c r="N26">
-        <v>0.27328215316021</v>
+        <v>0.08546401081524491</v>
       </c>
       <c r="O26">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="P26">
-        <v>79.2995945548339</v>
+        <v>24.7995023762336</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>2.92915888887259</v>
+        <v>0.9160410369403778</v>
       </c>
       <c r="C27">
-        <v>19.63294699888973</v>
+        <v>6.139846218441412</v>
       </c>
       <c r="D27">
-        <v>0.01242202946552935</v>
+        <v>0.003884763232112393</v>
       </c>
       <c r="E27">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="F27">
-        <v>5.251841649101378</v>
+        <v>1.642417722154077</v>
       </c>
       <c r="G27">
-        <v>8.532093472992724</v>
+        <v>2.668256673259777</v>
       </c>
       <c r="H27">
-        <v>0.6108272832430193</v>
+        <v>0.1910250959956538</v>
       </c>
       <c r="I27">
-        <v>4.527216868445885</v>
+        <v>1.415804533642532</v>
       </c>
       <c r="J27">
-        <v>4.703482829859155</v>
+        <v>1.470928499325545</v>
       </c>
       <c r="K27">
-        <v>6.229436677038192</v>
+        <v>1.948142743251746</v>
       </c>
       <c r="L27">
-        <v>15.46261708921852</v>
+        <v>4.835651574254983</v>
       </c>
       <c r="M27">
-        <v>9.729893402774723</v>
+        <v>3.042846762548832</v>
       </c>
       <c r="N27">
-        <v>0.1952015379715787</v>
+        <v>0.06104572201088925</v>
       </c>
       <c r="O27">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="P27">
-        <v>79.80996408498864</v>
+        <v>24.95911114153539</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>3.009297797613382</v>
+        <v>0.9411030195255693</v>
       </c>
       <c r="C28">
-        <v>20.17008513565445</v>
+        <v>6.30782637740491</v>
       </c>
       <c r="D28">
-        <v>0.01082946158533328</v>
+        <v>0.003386716663892856</v>
       </c>
       <c r="E28">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="F28">
-        <v>5.435045427558407</v>
+        <v>1.699711363624569</v>
       </c>
       <c r="G28">
-        <v>8.829724640655263</v>
+        <v>2.761335394420001</v>
       </c>
       <c r="H28">
-        <v>0.4886618265944154</v>
+        <v>0.152820076796523</v>
       </c>
       <c r="I28">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="J28">
-        <v>4.599423475216253</v>
+        <v>1.438385833411264</v>
       </c>
       <c r="K28">
-        <v>6.091617281528498</v>
+        <v>1.90504224008246</v>
       </c>
       <c r="L28">
-        <v>18.27400201453098</v>
+        <v>5.714860951392259</v>
       </c>
       <c r="M28">
-        <v>11.49896493055195</v>
+        <v>3.596091628466801</v>
       </c>
       <c r="N28">
-        <v>0.1952015379715787</v>
+        <v>0.06104572201088925</v>
       </c>
       <c r="O28">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="P28">
-        <v>84.06597081021775</v>
+        <v>26.29009964769479</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>3.473776370723272</v>
+        <v>1.086360224713211</v>
       </c>
       <c r="C29">
-        <v>23.28329392833155</v>
+        <v>7.281425666091322</v>
       </c>
       <c r="D29">
-        <v>0.01051094800929407</v>
+        <v>0.003287107350248949</v>
       </c>
       <c r="E29">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="F29">
-        <v>4.091551052206887</v>
+        <v>1.279557992840967</v>
       </c>
       <c r="G29">
-        <v>6.647096077796659</v>
+        <v>2.078758105911687</v>
       </c>
       <c r="H29">
-        <v>0.6651230417535102</v>
+        <v>0.2080051045286008</v>
       </c>
       <c r="I29">
-        <v>4.929636145641075</v>
+        <v>1.541653825521869</v>
       </c>
       <c r="J29">
-        <v>4.308057282216129</v>
+        <v>1.347266368851274</v>
       </c>
       <c r="K29">
-        <v>5.705722974101356</v>
+        <v>1.784360831208458</v>
       </c>
       <c r="L29">
-        <v>12.47552060607404</v>
+        <v>3.901491611046637</v>
       </c>
       <c r="M29">
-        <v>7.850254904511428</v>
+        <v>2.45502409251099</v>
       </c>
       <c r="N29">
-        <v>0.2472552814306663</v>
+        <v>0.07732458121379304</v>
       </c>
       <c r="O29">
-        <v>1.027607529729335</v>
+        <v>0.321365519186059</v>
       </c>
       <c r="P29">
-        <v>75.71518451188481</v>
+        <v>23.67854348764753</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>4.15250386311977</v>
+        <v>1.298619873138816</v>
       </c>
       <c r="C30">
-        <v>27.8325250866449</v>
+        <v>8.704114767516884</v>
       </c>
       <c r="D30">
-        <v>0.008918380129098</v>
+        <v>0.002789060782029411</v>
       </c>
       <c r="E30">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="F30">
-        <v>4.213686904511571</v>
+        <v>1.317753753821295</v>
       </c>
       <c r="G30">
-        <v>6.845516856238347</v>
+        <v>2.14081058668517</v>
       </c>
       <c r="H30">
-        <v>0.9366018343059632</v>
+        <v>0.2929051471933358</v>
       </c>
       <c r="I30">
-        <v>6.941732531617025</v>
+        <v>2.170900284918551</v>
       </c>
       <c r="J30">
-        <v>3.725324896215879</v>
+        <v>1.165027439731294</v>
       </c>
       <c r="K30">
-        <v>4.933934359247065</v>
+        <v>1.542998013460454</v>
       </c>
       <c r="L30">
-        <v>7.555596986777231</v>
+        <v>2.362875201056414</v>
       </c>
       <c r="M30">
-        <v>4.754379730901285</v>
+        <v>1.486845577154543</v>
       </c>
       <c r="N30">
-        <v>0.156161230377263</v>
+        <v>0.04883657760871139</v>
       </c>
       <c r="O30">
-        <v>0.6490152819343167</v>
+        <v>0.2029676963280372</v>
       </c>
       <c r="P30">
-        <v>73.55419474026425</v>
+        <v>23.00273333657213</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>4.338949487537119</v>
+        <v>1.356927342826812</v>
       </c>
       <c r="C31">
-        <v>29.0821934048322</v>
+        <v>9.094925749595236</v>
       </c>
       <c r="D31">
-        <v>0.01082946158533328</v>
+        <v>0.003386716663892856</v>
       </c>
       <c r="E31">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="F31">
-        <v>3.480871790683471</v>
+        <v>1.088579187939331</v>
       </c>
       <c r="G31">
-        <v>5.654992185588199</v>
+        <v>1.768495702044271</v>
       </c>
       <c r="H31">
-        <v>1.085915170209812</v>
+        <v>0.3396001706589399</v>
       </c>
       <c r="I31">
-        <v>8.048385543903795</v>
+        <v>2.516985837586724</v>
       </c>
       <c r="J31">
-        <v>2.684731349786863</v>
+        <v>0.8396007805884748</v>
       </c>
       <c r="K31">
-        <v>3.555740404150118</v>
+        <v>1.11199298176759</v>
       </c>
       <c r="L31">
-        <v>3.514231156640572</v>
+        <v>1.099011721421588</v>
       </c>
       <c r="M31">
-        <v>2.211339409721528</v>
+        <v>0.6915560823974619</v>
       </c>
       <c r="N31">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O31">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P31">
-        <v>64.8324501336069</v>
+        <v>20.27516672905135</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>3.269340379037581</v>
+        <v>1.022426595669354</v>
       </c>
       <c r="C32">
-        <v>21.91304357944197</v>
+        <v>6.852904852408923</v>
       </c>
       <c r="D32">
-        <v>0.005733244368705854</v>
+        <v>0.001792967645590335</v>
       </c>
       <c r="E32">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="F32">
-        <v>2.381649119941323</v>
+        <v>0.7448173391163841</v>
       </c>
       <c r="G32">
-        <v>3.86920517961298</v>
+        <v>1.210023375082922</v>
       </c>
       <c r="H32">
-        <v>0.7601406191468687</v>
+        <v>0.2377201194612581</v>
       </c>
       <c r="I32">
-        <v>5.633869880732657</v>
+        <v>1.761890086310707</v>
       </c>
       <c r="J32">
-        <v>1.560890319643525</v>
+        <v>0.4881399887142296</v>
       </c>
       <c r="K32">
-        <v>2.067290932645418</v>
+        <v>0.6465075475392963</v>
       </c>
       <c r="L32">
-        <v>4.568500503632746</v>
+        <v>1.428715237848065</v>
       </c>
       <c r="M32">
-        <v>2.874741232637986</v>
+        <v>0.8990229071167003</v>
       </c>
       <c r="N32">
-        <v>0.06506717932385955</v>
+        <v>0.02034857400362975</v>
       </c>
       <c r="O32">
-        <v>0.2704230341392986</v>
+        <v>0.08456987347001552</v>
       </c>
       <c r="P32">
-        <v>49.78522886031926</v>
+        <v>15.56942262257203</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>2.544819224503489</v>
+        <v>0.7958458143379267</v>
       </c>
       <c r="C33">
-        <v>17.05687634297735</v>
+        <v>5.334227088718499</v>
       </c>
       <c r="D33">
-        <v>0.01019243443325485</v>
+        <v>0.003187498036605041</v>
       </c>
       <c r="E33">
-        <v>0.9694820551365971</v>
+        <v>0.3031878367732497</v>
       </c>
       <c r="F33">
-        <v>2.503784972246006</v>
+        <v>0.7830131000967114</v>
       </c>
       <c r="G33">
-        <v>4.067625958054672</v>
+        <v>1.272075855856405</v>
       </c>
       <c r="H33">
-        <v>0.9908975928164536</v>
+        <v>0.3098851557262828</v>
       </c>
       <c r="I33">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="J33">
-        <v>1.352771610357721</v>
+        <v>0.4230546568856657</v>
       </c>
       <c r="K33">
-        <v>1.791652141626029</v>
+        <v>0.5603065412007233</v>
       </c>
       <c r="L33">
-        <v>2.63567336748043</v>
+        <v>0.8242587910661915</v>
       </c>
       <c r="M33">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="N33">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O33">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P33">
-        <v>43.12772619381326</v>
+        <v>13.48741004577843</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>2.047630892723889</v>
+        <v>0.6403592285032679</v>
       </c>
       <c r="C34">
-        <v>13.72442749447791</v>
+        <v>4.292064469842908</v>
       </c>
       <c r="D34">
-        <v>0.007007298672862713</v>
+        <v>0.002191404900165966</v>
       </c>
       <c r="E34">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="F34">
-        <v>2.015241563027273</v>
+        <v>0.6302300561754016</v>
       </c>
       <c r="G34">
-        <v>3.273942844287906</v>
+        <v>1.023865932762472</v>
       </c>
       <c r="H34">
-        <v>0.6379751624982648</v>
+        <v>0.1995151002621272</v>
       </c>
       <c r="I34">
-        <v>4.728426507043481</v>
+        <v>1.478729179582201</v>
       </c>
       <c r="J34">
-        <v>0.7700392243574723</v>
+        <v>0.2408157277656866</v>
       </c>
       <c r="K34">
-        <v>1.01986352677174</v>
+        <v>0.3189437234527195</v>
       </c>
       <c r="L34">
-        <v>2.459961809648402</v>
+        <v>0.7693082049951119</v>
       </c>
       <c r="M34">
-        <v>1.54793758680507</v>
+        <v>0.4840892576782232</v>
       </c>
       <c r="N34">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O34">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P34">
-        <v>33.03316890860595</v>
+        <v>10.33052130269135</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>1.45721974873561</v>
+        <v>0.45571890782461</v>
       </c>
       <c r="C35">
-        <v>9.767144486884838</v>
+        <v>3.05449635992814</v>
       </c>
       <c r="D35">
-        <v>0.009555407281176426</v>
+        <v>0.002988279409317227</v>
       </c>
       <c r="E35">
-        <v>0.9088894266905598</v>
+        <v>0.2842385969749217</v>
       </c>
       <c r="F35">
-        <v>1.52669815380854</v>
+        <v>0.4774470122540923</v>
       </c>
       <c r="G35">
-        <v>2.480259730521141</v>
+        <v>0.7756560096685398</v>
       </c>
       <c r="H35">
-        <v>0.3800703095734344</v>
+        <v>0.118860059730629</v>
       </c>
       <c r="I35">
-        <v>2.816934940366329</v>
+        <v>0.8809450431553534</v>
       </c>
       <c r="J35">
-        <v>0.6659798697145706</v>
+        <v>0.2082730618514046</v>
       </c>
       <c r="K35">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="L35">
-        <v>2.63567336748043</v>
+        <v>0.8242587910661915</v>
       </c>
       <c r="M35">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="N35">
-        <v>0.03904030759431574</v>
+        <v>0.01220914440217785</v>
       </c>
       <c r="O35">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="P35">
-        <v>25.39026825768771</v>
+        <v>7.940343472428915</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.8700795806143039</v>
+        <v>0.2721015252106538</v>
       </c>
       <c r="C36">
-        <v>5.831785484874003</v>
+        <v>1.82378458303229</v>
       </c>
       <c r="D36">
-        <v>0.01242202946552935</v>
+        <v>0.003884763232112393</v>
       </c>
       <c r="E36">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="F36">
-        <v>0.5496113353710748</v>
+        <v>0.1718809244114732</v>
       </c>
       <c r="G36">
-        <v>0.8928935029876105</v>
+        <v>0.2792361634806743</v>
       </c>
       <c r="H36">
-        <v>0.2307569736695851</v>
+        <v>0.07216503626502474</v>
       </c>
       <c r="I36">
-        <v>1.710281928079556</v>
+        <v>0.5348594904871787</v>
       </c>
       <c r="J36">
-        <v>0.6243561278574099</v>
+        <v>0.1952559954856919</v>
       </c>
       <c r="K36">
-        <v>0.8269163730581672</v>
+        <v>0.2586030190157185</v>
       </c>
       <c r="L36">
-        <v>1.932827136152315</v>
+        <v>0.6044564467818729</v>
       </c>
       <c r="M36">
-        <v>1.21623667534684</v>
+        <v>0.3803558453186041</v>
       </c>
       <c r="N36">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O36">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P36">
-        <v>15.94682144486675</v>
+        <v>4.987077658283423</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.6967178596648372</v>
+        <v>0.2178858077814633</v>
       </c>
       <c r="C37">
-        <v>4.669813189015648</v>
+        <v>1.460398933029616</v>
       </c>
       <c r="D37">
-        <v>0.00923689370513721</v>
+        <v>0.002888670095673318</v>
       </c>
       <c r="E37">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="F37">
-        <v>0.4885434092187331</v>
+        <v>0.1527830439213095</v>
       </c>
       <c r="G37">
-        <v>0.793683113766765</v>
+        <v>0.2482099230939327</v>
       </c>
       <c r="H37">
-        <v>0.1493133359038492</v>
+        <v>0.04669502346560424</v>
       </c>
       <c r="I37">
-        <v>1.106653012286772</v>
+        <v>0.3460855526681746</v>
       </c>
       <c r="J37">
-        <v>0.5827323860002491</v>
+        <v>0.182238929119979</v>
       </c>
       <c r="K37">
-        <v>0.7717886148542895</v>
+        <v>0.241362817748004</v>
       </c>
       <c r="L37">
-        <v>2.284250251816373</v>
+        <v>0.7143576189240324</v>
       </c>
       <c r="M37">
-        <v>1.437370616318993</v>
+        <v>0.4495114535583501</v>
       </c>
       <c r="N37">
-        <v>0.06506717932385955</v>
+        <v>0.02034857400362975</v>
       </c>
       <c r="O37">
-        <v>0.2704230341392986</v>
+        <v>0.08456987347001552</v>
       </c>
       <c r="P37">
-        <v>14.20418600848235</v>
+        <v>4.442100197955543</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.3663492971007594</v>
+        <v>0.1145690632465911</v>
       </c>
       <c r="C38">
-        <v>2.455488625210107</v>
+        <v>0.7679092981188596</v>
       </c>
       <c r="D38">
-        <v>0.01082946158533328</v>
+        <v>0.003386716663892856</v>
       </c>
       <c r="E38">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="F38">
-        <v>0.3664075569140497</v>
+        <v>0.1145872829409822</v>
       </c>
       <c r="G38">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="H38">
-        <v>0.0271478792552453</v>
+        <v>0.0084900042664735</v>
       </c>
       <c r="I38">
-        <v>0.2012096385975949</v>
+        <v>0.06292464593966812</v>
       </c>
       <c r="J38">
-        <v>0.5411086441430887</v>
+        <v>0.1692218627542663</v>
       </c>
       <c r="K38">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="L38">
-        <v>3.865654272304631</v>
+        <v>1.208912893563746</v>
       </c>
       <c r="M38">
-        <v>2.432473350693681</v>
+        <v>0.7607116906372081</v>
       </c>
       <c r="N38">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O38">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P38">
-        <v>12.67576464405524</v>
+        <v>3.964114282998734</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.242052214155859</v>
+        <v>0.07569741678792624</v>
       </c>
       <c r="C39">
-        <v>1.622376413085249</v>
+        <v>0.5073686433999604</v>
       </c>
       <c r="D39">
-        <v>0.006051757944745071</v>
+        <v>0.001892576959234243</v>
       </c>
       <c r="E39">
-        <v>0.5756299702373545</v>
+        <v>0.1800177780841171</v>
       </c>
       <c r="F39">
-        <v>0.3664075569140497</v>
+        <v>0.1145872829409822</v>
       </c>
       <c r="G39">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="H39">
-        <v>0.0271478792552453</v>
+        <v>0.0084900042664735</v>
       </c>
       <c r="I39">
-        <v>0.2012096385975949</v>
+        <v>0.06292464593966812</v>
       </c>
       <c r="J39">
-        <v>0.3329899348572853</v>
+        <v>0.1041365309257023</v>
       </c>
       <c r="K39">
-        <v>0.4410220656310224</v>
+        <v>0.1379216101417166</v>
       </c>
       <c r="L39">
-        <v>2.63567336748043</v>
+        <v>0.8242587910661915</v>
       </c>
       <c r="M39">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="N39">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O39">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P39">
-        <v>8.771425733467687</v>
+        <v>2.743103474125247</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.242052214155859</v>
+        <v>0.07569741678792624</v>
       </c>
       <c r="C40">
-        <v>1.622376413085249</v>
+        <v>0.5073686433999604</v>
       </c>
       <c r="D40">
-        <v>0.003822162912470571</v>
+        <v>0.00119531176372689</v>
       </c>
       <c r="E40">
-        <v>0.3635557706762239</v>
+        <v>0.1136954387899687</v>
       </c>
       <c r="F40">
-        <v>0.4274754830663912</v>
+        <v>0.1336851634311459</v>
       </c>
       <c r="G40">
-        <v>0.6944727245459195</v>
+        <v>0.2171836827071911</v>
       </c>
       <c r="H40">
-        <v>0.08144363776573593</v>
+        <v>0.02547001279942049</v>
       </c>
       <c r="I40">
-        <v>0.6036289157927845</v>
+        <v>0.1887739378190043</v>
       </c>
       <c r="J40">
-        <v>0.561920515071669</v>
+        <v>0.1757303959371226</v>
       </c>
       <c r="K40">
-        <v>0.7442247357523505</v>
+        <v>0.2327427171141467</v>
       </c>
       <c r="L40">
-        <v>4.217077387968688</v>
+        <v>1.318814065705906</v>
       </c>
       <c r="M40">
-        <v>2.653607291665834</v>
+        <v>0.8298672988769544</v>
       </c>
       <c r="N40">
-        <v>0.01301343586477191</v>
+        <v>0.00406971480072595</v>
       </c>
       <c r="O40">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="P40">
-        <v>12.28275529515181</v>
+        <v>3.841207774627202</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,49 +2418,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.5577013853185671</v>
+        <v>0.1744109400316408</v>
       </c>
       <c r="C41">
-        <v>3.738042951770743</v>
+        <v>1.169004779725584</v>
       </c>
       <c r="D41">
-        <v>0.003185135760392143</v>
+        <v>0.0009960931364390753</v>
       </c>
       <c r="E41">
-        <v>0.3029631422301866</v>
+        <v>0.09474619899164059</v>
       </c>
       <c r="F41">
-        <v>1.038154744589807</v>
+        <v>0.3246639683327827</v>
       </c>
       <c r="G41">
-        <v>1.686576616754376</v>
+        <v>0.5274460865746069</v>
       </c>
       <c r="H41">
-        <v>0.08144363776573593</v>
+        <v>0.02547001279942049</v>
       </c>
       <c r="I41">
-        <v>0.6036289157927845</v>
+        <v>0.1887739378190043</v>
       </c>
       <c r="J41">
-        <v>0.8740985790003737</v>
+        <v>0.2733583936799686</v>
       </c>
       <c r="K41">
-        <v>1.157682922281434</v>
+        <v>0.3620442266220059</v>
       </c>
       <c r="L41">
-        <v>8.082731660273316</v>
+        <v>2.527726959269652</v>
       </c>
       <c r="M41">
-        <v>5.086080642359514</v>
+        <v>1.590578989514162</v>
       </c>
       <c r="N41">
-        <v>0.02602687172954382</v>
+        <v>0.008139429601451901</v>
       </c>
       <c r="O41">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="P41">
-        <v>23.34648641928249</v>
+        <v>7.301187965486364</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2468,49 +2468,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>1.184093263843526</v>
+        <v>0.3703035794220175</v>
       </c>
       <c r="C42">
-        <v>7.936490020768378</v>
+        <v>2.481992552848456</v>
       </c>
       <c r="D42">
-        <v>0.0009555407281176427</v>
+        <v>0.0002988279409317226</v>
       </c>
       <c r="E42">
-        <v>0.09088894266905598</v>
+        <v>0.02842385969749217</v>
       </c>
       <c r="F42">
-        <v>1.404562301503857</v>
+        <v>0.439251251273765</v>
       </c>
       <c r="G42">
-        <v>2.28183895207945</v>
+        <v>0.7136035288950564</v>
       </c>
       <c r="H42">
-        <v>0.5429575851049062</v>
+        <v>0.16980008532947</v>
       </c>
       <c r="I42">
-        <v>4.024192771951897</v>
+        <v>1.258492918793362</v>
       </c>
       <c r="J42">
-        <v>1.748197158000747</v>
+        <v>0.5467167873599371</v>
       </c>
       <c r="K42">
-        <v>2.315365844562868</v>
+        <v>0.7240884532440118</v>
       </c>
       <c r="L42">
-        <v>8.961289449433458</v>
+        <v>2.80247988962505</v>
       </c>
       <c r="M42">
-        <v>5.638915494789897</v>
+        <v>1.763468010113528</v>
       </c>
       <c r="N42">
-        <v>0.05205374345908764</v>
+        <v>0.0162788592029038</v>
       </c>
       <c r="O42">
-        <v>0.2163384273114389</v>
+        <v>0.06765589877601241</v>
       </c>
       <c r="P42">
-        <v>36.3981394962067</v>
+        <v>11.38285450252199</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2518,49 +2518,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>2.193189318804101</v>
+        <v>0.6858799723824938</v>
       </c>
       <c r="C43">
-        <v>14.70004574288729</v>
+        <v>4.597171289184777</v>
       </c>
       <c r="D43">
-        <v>0.004459190064549</v>
+        <v>0.001394530391014705</v>
       </c>
       <c r="E43">
-        <v>0.4241483991222612</v>
+        <v>0.1326446785882968</v>
       </c>
       <c r="F43">
-        <v>3.41980386453113</v>
+        <v>1.069481307449167</v>
       </c>
       <c r="G43">
-        <v>5.555781796367356</v>
+        <v>1.737469461657529</v>
       </c>
       <c r="H43">
-        <v>1.303098204251775</v>
+        <v>0.4075202047907279</v>
       </c>
       <c r="I43">
-        <v>9.658062652684553</v>
+        <v>3.020383005104069</v>
       </c>
       <c r="J43">
-        <v>3.78776050900162</v>
+        <v>1.184553039279864</v>
       </c>
       <c r="K43">
-        <v>5.016625996552881</v>
+        <v>1.568858315362026</v>
       </c>
       <c r="L43">
-        <v>12.47552060607404</v>
+        <v>3.901491611046637</v>
       </c>
       <c r="M43">
-        <v>7.850254904511428</v>
+        <v>2.45502409251099</v>
       </c>
       <c r="N43">
-        <v>0.1821881021068068</v>
+        <v>0.05697600721016328</v>
       </c>
       <c r="O43">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="P43">
-        <v>67.32812378254982</v>
+        <v>21.0556431606738</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2568,49 +2568,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>3.709286633145189</v>
+        <v>1.160011765371734</v>
       </c>
       <c r="C44">
-        <v>24.86182233025232</v>
+        <v>7.775081643453447</v>
       </c>
       <c r="D44">
-        <v>0.003822162912470571</v>
+        <v>0.00119531176372689</v>
       </c>
       <c r="E44">
-        <v>0.3635557706762239</v>
+        <v>0.1136954387899687</v>
       </c>
       <c r="F44">
-        <v>3.969415199902205</v>
+        <v>1.24136223186064</v>
       </c>
       <c r="G44">
-        <v>6.448675299354967</v>
+        <v>2.016705625138203</v>
       </c>
       <c r="H44">
-        <v>1.520281238293737</v>
+        <v>0.4754402389225161</v>
       </c>
       <c r="I44">
-        <v>11.26773976146531</v>
+        <v>3.523780172621414</v>
       </c>
       <c r="J44">
-        <v>4.037502960144586</v>
+        <v>1.26265543747414</v>
       </c>
       <c r="K44">
-        <v>5.347392545776148</v>
+        <v>1.672299522968313</v>
       </c>
       <c r="L44">
-        <v>17.21973266753881</v>
+        <v>5.385157434965781</v>
       </c>
       <c r="M44">
-        <v>10.83556310763549</v>
+        <v>3.388624803747564</v>
       </c>
       <c r="N44">
-        <v>0.27328215316021</v>
+        <v>0.08546401081524491</v>
       </c>
       <c r="O44">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="P44">
-        <v>90.99384857364272</v>
+        <v>28.45666710646676</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2618,49 +2618,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>4.195026549390392</v>
+        <v>1.311918067979937</v>
       </c>
       <c r="C45">
-        <v>28.11753715921394</v>
+        <v>8.79324709676283</v>
       </c>
       <c r="D45">
-        <v>0.0111479751613725</v>
+        <v>0.003486325977536763</v>
       </c>
       <c r="E45">
-        <v>1.060370997805653</v>
+        <v>0.3316116964707419</v>
       </c>
       <c r="F45">
-        <v>4.824366166034989</v>
+        <v>1.508732558722931</v>
       </c>
       <c r="G45">
-        <v>7.837620748446807</v>
+        <v>2.451072990552585</v>
       </c>
       <c r="H45">
-        <v>1.085915170209812</v>
+        <v>0.3396001706589399</v>
       </c>
       <c r="I45">
-        <v>8.048385543903795</v>
+        <v>2.516985837586724</v>
       </c>
       <c r="J45">
-        <v>4.557799733359093</v>
+        <v>1.42536876704555</v>
       </c>
       <c r="K45">
-        <v>6.03648952332462</v>
+        <v>1.887802038814745</v>
       </c>
       <c r="L45">
-        <v>18.80113668802706</v>
+        <v>5.879712709605493</v>
       </c>
       <c r="M45">
-        <v>11.83066584201018</v>
+        <v>3.699825040826421</v>
       </c>
       <c r="N45">
-        <v>0.2212284097011225</v>
+        <v>0.06918515161234116</v>
       </c>
       <c r="O45">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="P45">
-        <v>97.54712882266243</v>
+        <v>30.50608602241483</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2668,49 +2668,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>3.359292215379286</v>
+        <v>1.050557392448652</v>
       </c>
       <c r="C46">
-        <v>22.51595373295339</v>
+        <v>7.041454010429177</v>
       </c>
       <c r="D46">
-        <v>0.01369608376968621</v>
+        <v>0.004283200486688024</v>
       </c>
       <c r="E46">
-        <v>1.302741511589802</v>
+        <v>0.4074086556640544</v>
       </c>
       <c r="F46">
-        <v>5.618249206015428</v>
+        <v>1.75700500509506</v>
       </c>
       <c r="G46">
-        <v>9.1273558083178</v>
+        <v>2.854414115580226</v>
       </c>
       <c r="H46">
-        <v>0.7601406191468687</v>
+        <v>0.2377201194612581</v>
       </c>
       <c r="I46">
-        <v>5.633869880732657</v>
+        <v>1.761890086310707</v>
       </c>
       <c r="J46">
-        <v>5.515145796073789</v>
+        <v>1.724761293456945</v>
       </c>
       <c r="K46">
-        <v>7.30442796201381</v>
+        <v>2.28432666797218</v>
       </c>
       <c r="L46">
-        <v>28.64098392662067</v>
+        <v>8.956945529585946</v>
       </c>
       <c r="M46">
-        <v>18.02241618923046</v>
+        <v>5.636182071539312</v>
       </c>
       <c r="N46">
-        <v>0.2212284097011225</v>
+        <v>0.06918515161234116</v>
       </c>
       <c r="O46">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="P46">
-        <v>108.9549396576184</v>
+        <v>34.0736708694406</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2718,49 +2718,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>2.536641784836061</v>
+        <v>0.793288469176173</v>
       </c>
       <c r="C47">
-        <v>17.00206632902177</v>
+        <v>5.31708625617121</v>
       </c>
       <c r="D47">
-        <v>0.01528865164988228</v>
+        <v>0.004781247054907561</v>
       </c>
       <c r="E47">
-        <v>1.454223082704896</v>
+        <v>0.4547817551598747</v>
       </c>
       <c r="F47">
-        <v>4.152618978359229</v>
+        <v>1.298655873331131</v>
       </c>
       <c r="G47">
-        <v>6.746306467017504</v>
+        <v>2.109784346298428</v>
       </c>
       <c r="H47">
-        <v>0.5022357662220382</v>
+        <v>0.1570650789297598</v>
       </c>
       <c r="I47">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="J47">
-        <v>5.889759472788234</v>
+        <v>1.84191489074836</v>
       </c>
       <c r="K47">
-        <v>7.80057778584871</v>
+        <v>2.439488479381612</v>
       </c>
       <c r="L47">
-        <v>21.78823317117156</v>
+        <v>6.813872672813843</v>
       </c>
       <c r="M47">
-        <v>13.71030434027347</v>
+        <v>4.287647710864264</v>
       </c>
       <c r="N47">
-        <v>0.1691746662420349</v>
+        <v>0.05290629240943735</v>
       </c>
       <c r="O47">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="P47">
-        <v>86.19290869895306</v>
+        <v>26.9552606932449</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2768,49 +2768,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>2.616780693576853</v>
+        <v>0.8183504517613643</v>
       </c>
       <c r="C48">
-        <v>17.53920446578648</v>
+        <v>5.485066415134705</v>
       </c>
       <c r="D48">
-        <v>0.00923689370513721</v>
+        <v>0.002888670095673318</v>
       </c>
       <c r="E48">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="F48">
-        <v>4.519026535273277</v>
+        <v>1.413243156272114</v>
       </c>
       <c r="G48">
-        <v>7.341568802342575</v>
+        <v>2.295941788618877</v>
       </c>
       <c r="H48">
-        <v>0.556531524732529</v>
+        <v>0.1740450874627067</v>
       </c>
       <c r="I48">
-        <v>4.124797591250696</v>
+        <v>1.289955241763197</v>
       </c>
       <c r="J48">
-        <v>6.014630698359714</v>
+        <v>1.880966089845498</v>
       </c>
       <c r="K48">
-        <v>7.965961060460343</v>
+        <v>2.491209083184756</v>
       </c>
       <c r="L48">
-        <v>31.27665729410109</v>
+        <v>9.781204320652131</v>
       </c>
       <c r="M48">
-        <v>19.6809207465216</v>
+        <v>6.15484913333741</v>
       </c>
       <c r="N48">
-        <v>0.1431477945124911</v>
+        <v>0.04476686280798545</v>
       </c>
       <c r="O48">
-        <v>0.5949306751064569</v>
+        <v>0.1860537216340341</v>
       </c>
       <c r="P48">
-        <v>103.2619878881968</v>
+        <v>32.29330399964621</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2818,49 +2818,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>2.700190578184618</v>
+        <v>0.8444353724112581</v>
       </c>
       <c r="C49">
-        <v>18.09826660813342</v>
+        <v>5.659902907117127</v>
       </c>
       <c r="D49">
-        <v>0.01305905661760778</v>
+        <v>0.004083981859400209</v>
       </c>
       <c r="E49">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="F49">
-        <v>3.480871790683471</v>
+        <v>1.088579187939331</v>
       </c>
       <c r="G49">
-        <v>5.654992185588199</v>
+        <v>1.768495702044271</v>
       </c>
       <c r="H49">
-        <v>0.5972533436153967</v>
+        <v>0.186780093862417</v>
       </c>
       <c r="I49">
-        <v>4.426612049147087</v>
+        <v>1.384342210672699</v>
       </c>
       <c r="J49">
-        <v>3.829384250858781</v>
+        <v>1.197570105645576</v>
       </c>
       <c r="K49">
-        <v>5.071753754756759</v>
+        <v>1.58609851662974</v>
       </c>
       <c r="L49">
-        <v>18.97684824585909</v>
+        <v>5.934663295676575</v>
       </c>
       <c r="M49">
-        <v>11.94123281249625</v>
+        <v>3.734402844946294</v>
       </c>
       <c r="N49">
-        <v>0.1691746662420349</v>
+        <v>0.05290629240943735</v>
       </c>
       <c r="O49">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="P49">
-        <v>76.90488811408866</v>
+        <v>24.0506015981019</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM25.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.9001854969375009</v>
+        <v>2.878458762934539</v>
       </c>
       <c r="C2">
-        <v>6.033573056648179</v>
+        <v>19.29312491236513</v>
       </c>
       <c r="D2">
-        <v>0.004781247054907561</v>
+        <v>0.01528865164988228</v>
       </c>
       <c r="E2">
-        <v>0.4547817551598747</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="F2">
-        <v>1.336851634311458</v>
+        <v>4.274754830663914</v>
       </c>
       <c r="G2">
-        <v>2.171836827071911</v>
+        <v>6.944727245459195</v>
       </c>
       <c r="H2">
-        <v>0.1315950661303392</v>
+        <v>0.4207921284563023</v>
       </c>
       <c r="I2">
-        <v>0.9753320120648559</v>
+        <v>3.11874939826272</v>
       </c>
       <c r="J2">
-        <v>1.503471165239827</v>
+        <v>4.807542184502057</v>
       </c>
       <c r="K2">
-        <v>1.991243246421033</v>
+        <v>6.367256072547888</v>
       </c>
       <c r="L2">
-        <v>5.330206848894702</v>
+        <v>17.04402110970678</v>
       </c>
       <c r="M2">
-        <v>3.354046999627689</v>
+        <v>10.72499613714941</v>
       </c>
       <c r="N2">
-        <v>0.06918515161234116</v>
+        <v>0.2212284097011225</v>
       </c>
       <c r="O2">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="P2">
-        <v>24.54462807697267</v>
+        <v>78.48460124217745</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.8899561162904839</v>
+        <v>2.845749004264828</v>
       </c>
       <c r="C3">
-        <v>5.965009726458995</v>
+        <v>19.0738848565428</v>
       </c>
       <c r="D3">
-        <v>0.005080074995839285</v>
+        <v>0.01624419237799993</v>
       </c>
       <c r="E3">
-        <v>0.4832056148573668</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="F3">
-        <v>1.527830439213096</v>
+        <v>4.885434092187331</v>
       </c>
       <c r="G3">
-        <v>2.482099230939327</v>
+        <v>7.93683113766765</v>
       </c>
       <c r="H3">
-        <v>0.1273500639971025</v>
+        <v>0.4072181888286796</v>
       </c>
       <c r="I3">
-        <v>0.9438696890950217</v>
+        <v>3.018144578963924</v>
       </c>
       <c r="J3">
-        <v>1.51648823160554</v>
+        <v>4.849165926359218</v>
       </c>
       <c r="K3">
-        <v>2.008483447688747</v>
+        <v>6.422383830751765</v>
       </c>
       <c r="L3">
-        <v>5.989613881747657</v>
+        <v>19.15255980369112</v>
       </c>
       <c r="M3">
-        <v>3.768980649066168</v>
+        <v>12.05179978298233</v>
       </c>
       <c r="N3">
-        <v>0.0732548664130671</v>
+        <v>0.2342418455658944</v>
       </c>
       <c r="O3">
-        <v>0.3044515444920559</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="P3">
-        <v>26.08567357686047</v>
+        <v>83.41229218845898</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.006059586634128</v>
+        <v>3.217004765166044</v>
       </c>
       <c r="C4">
-        <v>6.743203524106232</v>
+        <v>21.56225949012624</v>
       </c>
       <c r="D4">
-        <v>0.005179684309483191</v>
+        <v>0.01656270595403914</v>
       </c>
       <c r="E4">
-        <v>0.4926802347565309</v>
+        <v>1.57540833959697</v>
       </c>
       <c r="F4">
-        <v>1.661515602644241</v>
+        <v>5.31290957525372</v>
       </c>
       <c r="G4">
-        <v>2.699282913646518</v>
+        <v>8.631303862213572</v>
       </c>
       <c r="H4">
-        <v>0.1485750746632863</v>
+        <v>0.4750878869667927</v>
       </c>
       <c r="I4">
-        <v>1.101181303944192</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="J4">
-        <v>1.789846625285508</v>
+        <v>5.723264505359592</v>
       </c>
       <c r="K4">
-        <v>2.370527674310754</v>
+        <v>7.580066753033201</v>
       </c>
       <c r="L4">
-        <v>4.56089864389959</v>
+        <v>14.58405930005838</v>
       </c>
       <c r="M4">
-        <v>2.869957741949467</v>
+        <v>9.177058550344343</v>
       </c>
       <c r="N4">
-        <v>0.04069714800725949</v>
+        <v>0.1301343586477191</v>
       </c>
       <c r="O4">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="P4">
-        <v>25.65874550509722</v>
+        <v>82.04713483645712</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.08584875568086</v>
+        <v>3.472140882789787</v>
       </c>
       <c r="C5">
-        <v>7.277997499581867</v>
+        <v>23.27233192554042</v>
       </c>
       <c r="D5">
-        <v>0.003287107350248949</v>
+        <v>0.01051094800929407</v>
       </c>
       <c r="E5">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="F5">
-        <v>1.699711363624569</v>
+        <v>5.435045427558407</v>
       </c>
       <c r="G5">
-        <v>2.761335394420001</v>
+        <v>8.829724640655263</v>
       </c>
       <c r="H5">
-        <v>0.1570650789297598</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I5">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J5">
-        <v>1.555539430702678</v>
+        <v>4.974037151930699</v>
       </c>
       <c r="K5">
-        <v>2.060204051491891</v>
+        <v>6.587767105363397</v>
       </c>
       <c r="L5">
-        <v>3.077232819980448</v>
+        <v>9.83984723859361</v>
       </c>
       <c r="M5">
-        <v>1.936357030712893</v>
+        <v>6.191750347220278</v>
       </c>
       <c r="N5">
-        <v>0.02848800360508164</v>
+        <v>0.0910940510534034</v>
       </c>
       <c r="O5">
-        <v>0.1183978228580217</v>
+        <v>0.378592247795018</v>
       </c>
       <c r="P5">
-        <v>23.23823276549459</v>
+        <v>74.30723441614674</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.318567165400498</v>
+        <v>4.216287892525705</v>
       </c>
       <c r="C6">
-        <v>8.837813261385801</v>
+        <v>28.26004319549846</v>
       </c>
       <c r="D6">
-        <v>0.004880856368551469</v>
+        <v>0.01560716522592149</v>
       </c>
       <c r="E6">
-        <v>0.4642563750590387</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="F6">
-        <v>1.203166470880312</v>
+        <v>3.847279347597522</v>
       </c>
       <c r="G6">
-        <v>1.954653144364719</v>
+        <v>6.250254520913275</v>
       </c>
       <c r="H6">
-        <v>0.2929051471933358</v>
+        <v>0.9366018343059632</v>
       </c>
       <c r="I6">
-        <v>2.170900284918551</v>
+        <v>6.941732531617025</v>
       </c>
       <c r="J6">
-        <v>1.112959174268443</v>
+        <v>3.558829928787237</v>
       </c>
       <c r="K6">
-        <v>1.474037208389595</v>
+        <v>4.713423326431553</v>
       </c>
       <c r="L6">
-        <v>1.703468168203461</v>
+        <v>5.447058292792889</v>
       </c>
       <c r="M6">
-        <v>1.071911927716066</v>
+        <v>3.427576085068368</v>
       </c>
       <c r="N6">
-        <v>0.08546401081524491</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O6">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P6">
-        <v>22.05017666353768</v>
+        <v>70.5082724142371</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.316521289271095</v>
+        <v>4.209745940791765</v>
       </c>
       <c r="C7">
-        <v>8.824100595347963</v>
+        <v>28.21619518433399</v>
       </c>
       <c r="D7">
-        <v>0.002689451468385503</v>
+        <v>0.008599866553058784</v>
       </c>
       <c r="E7">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="F7">
-        <v>0.8594046220573663</v>
+        <v>2.748056676855372</v>
       </c>
       <c r="G7">
-        <v>1.396180817403372</v>
+        <v>4.464467514938054</v>
       </c>
       <c r="H7">
-        <v>0.322620162125993</v>
+        <v>1.031619411699322</v>
       </c>
       <c r="I7">
-        <v>2.391136545707388</v>
+        <v>7.645966266708605</v>
       </c>
       <c r="J7">
-        <v>0.6378362519199265</v>
+        <v>2.039563351000873</v>
       </c>
       <c r="K7">
-        <v>0.844769862118014</v>
+        <v>2.701260151990013</v>
       </c>
       <c r="L7">
-        <v>0.8242587910661915</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M7">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N7">
-        <v>0.04883657760871139</v>
+        <v>0.156161230377263</v>
       </c>
       <c r="O7">
-        <v>0.2029676963280372</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="P7">
-        <v>18.44580446149797</v>
+        <v>58.9828292859757</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.9196213201668333</v>
+        <v>2.940607304406989</v>
       </c>
       <c r="C8">
-        <v>6.163843384007623</v>
+        <v>19.70968101842756</v>
       </c>
       <c r="D8">
-        <v>0.002789060782029411</v>
+        <v>0.008918380129098</v>
       </c>
       <c r="E8">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="F8">
-        <v>0.7448173391163841</v>
+        <v>2.381649119941323</v>
       </c>
       <c r="G8">
-        <v>1.210023375082922</v>
+        <v>3.86920517961298</v>
       </c>
       <c r="H8">
-        <v>0.2080051045286008</v>
+        <v>0.6651230417535102</v>
       </c>
       <c r="I8">
-        <v>1.541653825521869</v>
+        <v>4.929636145641075</v>
       </c>
       <c r="J8">
-        <v>0.4881399887142296</v>
+        <v>1.560890319643525</v>
       </c>
       <c r="K8">
-        <v>0.6465075475392963</v>
+        <v>2.067290932645418</v>
       </c>
       <c r="L8">
-        <v>0.9891105492794292</v>
+        <v>3.162808040976515</v>
       </c>
       <c r="M8">
-        <v>0.6224004741577157</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="N8">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O8">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P8">
-        <v>13.82318501556825</v>
+        <v>44.20140979286452</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.750836539491052</v>
+        <v>2.400896286356762</v>
       </c>
       <c r="C9">
-        <v>5.032548435886093</v>
+        <v>16.0922200973591</v>
       </c>
       <c r="D9">
-        <v>0.002490232841097689</v>
+        <v>0.007962839400980356</v>
       </c>
       <c r="E9">
-        <v>0.2368654974791014</v>
+        <v>0.7574078555754664</v>
       </c>
       <c r="F9">
-        <v>0.5347406537245835</v>
+        <v>1.709901932265565</v>
       </c>
       <c r="G9">
-        <v>0.8687347308287645</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="H9">
-        <v>0.3098851557262828</v>
+        <v>0.9908975928164536</v>
       </c>
       <c r="I9">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="J9">
-        <v>0.2798669268628249</v>
+        <v>0.8949104499289544</v>
       </c>
       <c r="K9">
-        <v>0.3706643272558632</v>
+        <v>1.185246801383373</v>
       </c>
       <c r="L9">
-        <v>0.549505860710794</v>
+        <v>1.757115578320286</v>
       </c>
       <c r="M9">
-        <v>0.345778041198731</v>
+        <v>1.105669704860764</v>
       </c>
       <c r="N9">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O9">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P9">
-        <v>11.64161704728726</v>
+        <v>37.22556597334149</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,49 +880,49 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.555455369133026</v>
+        <v>1.776139895765289</v>
       </c>
       <c r="C10">
-        <v>3.722988829272683</v>
+        <v>11.90473503115257</v>
       </c>
       <c r="D10">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E10">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F10">
-        <v>0.4201533707836013</v>
+        <v>1.343494375351516</v>
       </c>
       <c r="G10">
-        <v>0.6825772885083147</v>
+        <v>2.182628562858604</v>
       </c>
       <c r="H10">
-        <v>0.2037601023953639</v>
+        <v>0.6515491021258875</v>
       </c>
       <c r="I10">
-        <v>1.510191502552035</v>
+        <v>4.829031326342276</v>
       </c>
       <c r="J10">
-        <v>0.2538327941313994</v>
+        <v>0.8116629662146325</v>
       </c>
       <c r="K10">
-        <v>0.3361839247204341</v>
+        <v>1.074991284975617</v>
       </c>
       <c r="L10">
-        <v>0.549505860710794</v>
+        <v>1.757115578320286</v>
       </c>
       <c r="M10">
-        <v>0.345778041198731</v>
+        <v>1.105669704860764</v>
       </c>
       <c r="N10">
-        <v>0.0162788592029038</v>
+        <v>0.05205374345908764</v>
       </c>
       <c r="O10">
-        <v>0.06765589877601241</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="P10">
-        <v>8.836697967215841</v>
+        <v>28.256476899121</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -930,49 +930,49 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.4260537039482603</v>
+        <v>1.36236144859345</v>
       </c>
       <c r="C11">
-        <v>2.855662702379506</v>
+        <v>9.131348325000085</v>
       </c>
       <c r="D11">
-        <v>0.002888670095673318</v>
+        <v>0.00923689370513721</v>
       </c>
       <c r="E11">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="F11">
-        <v>0.4201533707836013</v>
+        <v>1.343494375351516</v>
       </c>
       <c r="G11">
-        <v>0.6825772885083147</v>
+        <v>2.182628562858604</v>
       </c>
       <c r="H11">
-        <v>0.09339004693120849</v>
+        <v>0.2986266718076984</v>
       </c>
       <c r="I11">
-        <v>0.6921711053363493</v>
+        <v>2.213306024573543</v>
       </c>
       <c r="J11">
-        <v>0.2603413273142558</v>
+        <v>0.8324748371432132</v>
       </c>
       <c r="K11">
-        <v>0.3448040253542914</v>
+        <v>1.102555164077556</v>
       </c>
       <c r="L11">
-        <v>0.8242587910661915</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M11">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N11">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O11">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P11">
-        <v>7.458683139075692</v>
+        <v>23.85009746842782</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -980,43 +980,43 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.2623836135959873</v>
+        <v>0.8390053098780792</v>
       </c>
       <c r="C12">
-        <v>1.758649419352565</v>
+        <v>5.623507431842789</v>
       </c>
       <c r="D12">
-        <v>0.002689451468385503</v>
+        <v>0.008599866553058784</v>
       </c>
       <c r="E12">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="F12">
-        <v>0.09548940245081849</v>
+        <v>0.3053396307617082</v>
       </c>
       <c r="G12">
-        <v>0.1551312019337079</v>
+        <v>0.4960519461042281</v>
       </c>
       <c r="H12">
-        <v>0.033960017065894</v>
+        <v>0.1085915170209812</v>
       </c>
       <c r="I12">
-        <v>0.2516985837586725</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="J12">
-        <v>0.1562047963885535</v>
+        <v>0.4994849022859278</v>
       </c>
       <c r="K12">
-        <v>0.2068824152125748</v>
+        <v>0.6615330984465339</v>
       </c>
       <c r="L12">
-        <v>0.8792093771372705</v>
+        <v>2.811384925312458</v>
       </c>
       <c r="M12">
-        <v>0.5532448659179696</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="P12">
-        <v>4.61135788155983</v>
+        <v>14.74540919439487</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1024,49 +1024,49 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.163670090352273</v>
+        <v>0.5233561387153705</v>
       </c>
       <c r="C13">
-        <v>1.097013283026942</v>
+        <v>3.507840893157296</v>
       </c>
       <c r="D13">
-        <v>0.003287107350248949</v>
+        <v>0.01051094800929407</v>
       </c>
       <c r="E13">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="F13">
-        <v>0.07639152196065477</v>
+        <v>0.2442717046093666</v>
       </c>
       <c r="G13">
-        <v>0.1241049615469664</v>
+        <v>0.3968415568833825</v>
       </c>
       <c r="H13">
-        <v>0.016980008532947</v>
+        <v>0.05429575851049061</v>
       </c>
       <c r="I13">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="J13">
-        <v>0.2082730618514046</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K13">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L13">
-        <v>0.8242587910661915</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M13">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N13">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O13">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P13">
-        <v>3.767984545815637</v>
+        <v>12.04861461488083</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1074,49 +1074,49 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.1028052755025215</v>
+        <v>0.3287330746305922</v>
       </c>
       <c r="C14">
-        <v>0.6890614684012973</v>
+        <v>2.203362561014426</v>
       </c>
       <c r="D14">
-        <v>0.002689451468385503</v>
+        <v>0.008599866553058784</v>
       </c>
       <c r="E14">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="F14">
-        <v>0.07639152196065477</v>
+        <v>0.2442717046093666</v>
       </c>
       <c r="G14">
-        <v>0.1241049615469664</v>
+        <v>0.3968415568833825</v>
       </c>
       <c r="H14">
-        <v>0.01273500639971025</v>
+        <v>0.04072181888286797</v>
       </c>
       <c r="I14">
-        <v>0.09438696890950217</v>
+        <v>0.3018144578963923</v>
       </c>
       <c r="J14">
-        <v>0.1757303959371226</v>
+        <v>0.561920515071669</v>
       </c>
       <c r="K14">
-        <v>0.2327427171141467</v>
+        <v>0.7442247357523505</v>
       </c>
       <c r="L14">
-        <v>1.758418754274541</v>
+        <v>5.622769850624916</v>
       </c>
       <c r="M14">
-        <v>1.106489731835939</v>
+        <v>3.538143055554445</v>
       </c>
       <c r="N14">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O14">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P14">
-        <v>4.652354680122946</v>
+        <v>14.8765017241876</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1124,43 +1124,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.07620888582027706</v>
+        <v>0.2436877020893444</v>
       </c>
       <c r="C15">
-        <v>0.5107968099094196</v>
+        <v>1.633338415876366</v>
       </c>
       <c r="D15">
-        <v>0.001693358331946428</v>
+        <v>0.005414730792666641</v>
       </c>
       <c r="E15">
-        <v>0.161068538285789</v>
+        <v>0.5150373417913172</v>
       </c>
       <c r="F15">
-        <v>0.0572936414704911</v>
+        <v>0.1832037784570248</v>
       </c>
       <c r="G15">
-        <v>0.09307872116022477</v>
+        <v>0.2976311676625368</v>
       </c>
       <c r="J15">
-        <v>0.1171535972914151</v>
+        <v>0.374613676714446</v>
       </c>
       <c r="K15">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="L15">
-        <v>1.373764651776985</v>
+        <v>4.392788945800716</v>
       </c>
       <c r="M15">
-        <v>0.8644451029968273</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="N15">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O15">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P15">
-        <v>3.452632497442265</v>
+        <v>11.04023593055649</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1168,49 +1168,49 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.08030063807908386</v>
+        <v>0.2567716055572288</v>
       </c>
       <c r="C16">
-        <v>0.5382221419850933</v>
+        <v>1.721034438205298</v>
       </c>
       <c r="D16">
-        <v>0.0008964838227951677</v>
+        <v>0.002866622184352927</v>
       </c>
       <c r="E16">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="F16">
-        <v>0.190978804901637</v>
+        <v>0.6106792615234163</v>
       </c>
       <c r="G16">
-        <v>0.3102624038674159</v>
+        <v>0.9921038922084563</v>
       </c>
       <c r="H16">
-        <v>0.02122501066618375</v>
+        <v>0.06786969813811328</v>
       </c>
       <c r="I16">
-        <v>0.1573116148491703</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="J16">
-        <v>0.1366791968399843</v>
+        <v>0.4370492895001868</v>
       </c>
       <c r="K16">
-        <v>0.181022113311003</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="L16">
-        <v>1.593566996061302</v>
+        <v>5.095635177128834</v>
       </c>
       <c r="M16">
-        <v>1.00275631947632</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="N16">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O16">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P16">
-        <v>4.319476992447194</v>
+        <v>13.81208255687661</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1218,49 +1218,49 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.1836173826139563</v>
+        <v>0.5871401681213063</v>
       </c>
       <c r="C17">
-        <v>1.230711776895851</v>
+        <v>3.935359002010842</v>
       </c>
       <c r="D17">
-        <v>0.0008964838227951677</v>
+        <v>0.002866622184352927</v>
       </c>
       <c r="E17">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="F17">
-        <v>0.190978804901637</v>
+        <v>0.6106792615234163</v>
       </c>
       <c r="G17">
-        <v>0.3102624038674159</v>
+        <v>0.9921038922084563</v>
       </c>
       <c r="H17">
-        <v>0.01273500639971025</v>
+        <v>0.04072181888286797</v>
       </c>
       <c r="I17">
-        <v>0.09438696890950217</v>
+        <v>0.3018144578963923</v>
       </c>
       <c r="J17">
-        <v>0.247324260948543</v>
+        <v>0.7908510952860526</v>
       </c>
       <c r="K17">
-        <v>0.3275638240865769</v>
+        <v>1.047427405873679</v>
       </c>
       <c r="L17">
-        <v>2.143072856772097</v>
+        <v>6.852750755449118</v>
       </c>
       <c r="M17">
-        <v>1.348534360675051</v>
+        <v>4.312111848956981</v>
       </c>
       <c r="N17">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O17">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P17">
-        <v>6.217323087975071</v>
+        <v>19.8806892417859</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1268,49 +1268,49 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.3917852787807532</v>
+        <v>1.252783757049918</v>
       </c>
       <c r="C18">
-        <v>2.625975546245741</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="D18">
-        <v>0.001494139704658613</v>
+        <v>0.004777703640588213</v>
       </c>
       <c r="E18">
-        <v>0.1421192984874608</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="F18">
-        <v>0.4010554902934375</v>
+        <v>1.282426449199174</v>
       </c>
       <c r="G18">
-        <v>0.6515510481215732</v>
+        <v>2.083418173637758</v>
       </c>
       <c r="H18">
-        <v>0.1443300725300495</v>
+        <v>0.4615139473391703</v>
       </c>
       <c r="I18">
-        <v>1.069718980974357</v>
+        <v>3.420563856159113</v>
       </c>
       <c r="J18">
-        <v>0.5727509200913627</v>
+        <v>1.831444641715069</v>
       </c>
       <c r="K18">
-        <v>0.758568855779441</v>
+        <v>2.425621360970624</v>
       </c>
       <c r="L18">
-        <v>2.80247988962505</v>
+        <v>8.961289449433458</v>
       </c>
       <c r="M18">
-        <v>1.763468010113528</v>
+        <v>5.638915494789897</v>
       </c>
       <c r="N18">
-        <v>0.0244182888043557</v>
+        <v>0.07808061518863148</v>
       </c>
       <c r="O18">
-        <v>0.1014838481640186</v>
+        <v>0.3245076409671583</v>
       </c>
       <c r="P18">
-        <v>11.45119966771579</v>
+        <v>36.61668194143112</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1318,49 +1318,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.6833226272207396</v>
+        <v>2.185011879136673</v>
       </c>
       <c r="C19">
-        <v>4.580030456637481</v>
+        <v>14.64523572893171</v>
       </c>
       <c r="D19">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E19">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F19">
-        <v>1.050383426959004</v>
+        <v>3.358735938378789</v>
       </c>
       <c r="G19">
-        <v>1.706443221270787</v>
+        <v>5.45657140714651</v>
       </c>
       <c r="H19">
-        <v>0.3947851983910179</v>
+        <v>1.262376385368907</v>
       </c>
       <c r="I19">
-        <v>2.925996036194567</v>
+        <v>9.356248194788163</v>
       </c>
       <c r="J19">
-        <v>1.054382375622736</v>
+        <v>3.371523090430014</v>
       </c>
       <c r="K19">
-        <v>1.39645630268488</v>
+        <v>4.465348414514104</v>
       </c>
       <c r="L19">
-        <v>3.956442197117717</v>
+        <v>12.65123216390606</v>
       </c>
       <c r="M19">
-        <v>2.489601896630863</v>
+        <v>7.960821874997503</v>
       </c>
       <c r="N19">
-        <v>0.04069714800725949</v>
+        <v>0.1301343586477191</v>
       </c>
       <c r="O19">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="P19">
-        <v>20.62001675950762</v>
+        <v>65.9351524049078</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1368,49 +1368,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.16359204859819</v>
+        <v>3.720735048679588</v>
       </c>
       <c r="C20">
-        <v>7.799078809019661</v>
+        <v>24.93855634979013</v>
       </c>
       <c r="D20">
-        <v>0.001992186272878151</v>
+        <v>0.006370271520784286</v>
       </c>
       <c r="E20">
-        <v>0.1894923979832812</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="F20">
-        <v>1.298655873331131</v>
+        <v>4.152618978359229</v>
       </c>
       <c r="G20">
-        <v>2.109784346298428</v>
+        <v>6.746306467017504</v>
       </c>
       <c r="H20">
-        <v>0.3862951941245444</v>
+        <v>1.235228506113661</v>
       </c>
       <c r="I20">
-        <v>2.8630713902549</v>
+        <v>9.155038556190565</v>
       </c>
       <c r="J20">
-        <v>1.197570105645576</v>
+        <v>3.829384250858781</v>
       </c>
       <c r="K20">
-        <v>1.58609851662974</v>
+        <v>5.071753754756759</v>
       </c>
       <c r="L20">
-        <v>5.440108021036862</v>
+        <v>17.39544422537083</v>
       </c>
       <c r="M20">
-        <v>3.423202607867435</v>
+        <v>10.94613007812157</v>
       </c>
       <c r="N20">
-        <v>0.08139429601451899</v>
+        <v>0.2602687172954382</v>
       </c>
       <c r="O20">
-        <v>0.3382794938800621</v>
+        <v>1.081692136557195</v>
       </c>
       <c r="P20">
-        <v>27.8786152869572</v>
+        <v>89.14545362509241</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1418,49 +1418,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.226502739577346</v>
+        <v>3.92190006449831</v>
       </c>
       <c r="C21">
-        <v>8.22074328968314</v>
+        <v>26.28688269309748</v>
       </c>
       <c r="D21">
-        <v>0.002988279409317227</v>
+        <v>0.009555407281176426</v>
       </c>
       <c r="E21">
-        <v>0.2842385969749217</v>
+        <v>0.9088894266905598</v>
       </c>
       <c r="F21">
-        <v>1.031285546468839</v>
+        <v>3.297668012226446</v>
       </c>
       <c r="G21">
-        <v>1.675416980884046</v>
+        <v>5.357361017925665</v>
       </c>
       <c r="H21">
-        <v>0.2674351343939153</v>
+        <v>0.8551581965402273</v>
       </c>
       <c r="I21">
-        <v>1.982126347099546</v>
+        <v>6.338103615824239</v>
       </c>
       <c r="J21">
-        <v>1.034856776074166</v>
+        <v>3.309087477644273</v>
       </c>
       <c r="K21">
-        <v>1.370596000783308</v>
+        <v>4.382656777208286</v>
       </c>
       <c r="L21">
-        <v>4.45099747175743</v>
+        <v>14.23263618439432</v>
       </c>
       <c r="M21">
-        <v>2.800802133709721</v>
+        <v>8.955924609372191</v>
       </c>
       <c r="N21">
-        <v>0.05697600721016328</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O21">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P21">
-        <v>24.6417609497419</v>
+        <v>78.79519608040002</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1468,49 +1468,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.986623763404795</v>
+        <v>3.154856223693592</v>
       </c>
       <c r="C22">
-        <v>6.612933196746781</v>
+        <v>21.14570338406382</v>
       </c>
       <c r="D22">
-        <v>0.004283200486688024</v>
+        <v>0.01369608376968621</v>
       </c>
       <c r="E22">
-        <v>0.4074086556640544</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="F22">
-        <v>1.795200766075388</v>
+        <v>5.740385058320112</v>
       </c>
       <c r="G22">
-        <v>2.916466596353709</v>
+        <v>9.325776586759492</v>
       </c>
       <c r="H22">
-        <v>0.2080051045286008</v>
+        <v>0.6651230417535102</v>
       </c>
       <c r="I22">
-        <v>1.541653825521869</v>
+        <v>4.929636145641075</v>
       </c>
       <c r="J22">
-        <v>1.737778359822657</v>
+        <v>5.556769537930947</v>
       </c>
       <c r="K22">
-        <v>2.301566869239895</v>
+        <v>7.359555720217688</v>
       </c>
       <c r="L22">
-        <v>7.857933808164357</v>
+        <v>25.1267527699801</v>
       </c>
       <c r="M22">
-        <v>4.94462598914185</v>
+        <v>15.81107677950893</v>
       </c>
       <c r="N22">
-        <v>0.06918515161234116</v>
+        <v>0.2212284097011225</v>
       </c>
       <c r="O22">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="P22">
-        <v>31.67120285656104</v>
+        <v>101.2727395690035</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1518,49 +1518,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.7748755840115421</v>
+        <v>2.477764219230583</v>
       </c>
       <c r="C23">
-        <v>5.193672261830677</v>
+        <v>16.60743422854156</v>
       </c>
       <c r="D23">
-        <v>0.004283200486688024</v>
+        <v>0.01369608376968621</v>
       </c>
       <c r="E23">
-        <v>0.4074086556640544</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="F23">
-        <v>1.451438917252441</v>
+        <v>4.641162387577962</v>
       </c>
       <c r="G23">
-        <v>2.357994269392361</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="H23">
-        <v>0.1273500639971025</v>
+        <v>0.4072181888286796</v>
       </c>
       <c r="I23">
-        <v>0.9438696890950217</v>
+        <v>3.018144578963924</v>
       </c>
       <c r="J23">
-        <v>1.711744227091232</v>
+        <v>5.473522054216628</v>
       </c>
       <c r="K23">
-        <v>2.267086466704466</v>
+        <v>7.249300203809933</v>
       </c>
       <c r="L23">
-        <v>7.638131463880034</v>
+        <v>24.42390653865198</v>
       </c>
       <c r="M23">
-        <v>4.806314772662359</v>
+        <v>15.36880889756462</v>
       </c>
       <c r="N23">
-        <v>0.04069714800725949</v>
+        <v>0.1301343586477191</v>
       </c>
       <c r="O23">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="P23">
-        <v>27.89400646701526</v>
+        <v>89.19466890045594</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1568,49 +1568,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.8802382046758174</v>
+        <v>2.814674733528603</v>
       </c>
       <c r="C24">
-        <v>5.899874562779269</v>
+        <v>18.86560680351158</v>
       </c>
       <c r="D24">
-        <v>0.004382809800331931</v>
+        <v>0.01401459734572543</v>
       </c>
       <c r="E24">
-        <v>0.4168832755632184</v>
+        <v>1.333037825812821</v>
       </c>
       <c r="F24">
-        <v>1.508732558722931</v>
+        <v>4.824366166034989</v>
       </c>
       <c r="G24">
-        <v>2.451072990552585</v>
+        <v>7.837620748446807</v>
       </c>
       <c r="H24">
-        <v>0.1952700981288905</v>
+        <v>0.624401222870642</v>
       </c>
       <c r="I24">
-        <v>1.447266856612366</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="J24">
-        <v>1.776829558919796</v>
+        <v>5.681640763502429</v>
       </c>
       <c r="K24">
-        <v>2.353287473043039</v>
+        <v>7.524938994829323</v>
       </c>
       <c r="L24">
-        <v>6.758922086742766</v>
+        <v>21.61252161333952</v>
       </c>
       <c r="M24">
-        <v>4.253069906744391</v>
+        <v>13.5997373697874</v>
       </c>
       <c r="N24">
-        <v>0.08546401081524491</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O24">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P24">
-        <v>28.38648786167471</v>
+        <v>90.7694414232998</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1618,49 +1618,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.8444353724112581</v>
+        <v>2.700190578184618</v>
       </c>
       <c r="C25">
-        <v>5.659902907117127</v>
+        <v>18.09826660813342</v>
       </c>
       <c r="D25">
-        <v>0.004083981859400209</v>
+        <v>0.01305905661760778</v>
       </c>
       <c r="E25">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="F25">
-        <v>1.088579187939331</v>
+        <v>3.480871790683471</v>
       </c>
       <c r="G25">
-        <v>1.768495702044271</v>
+        <v>5.654992185588199</v>
       </c>
       <c r="H25">
-        <v>0.186780093862417</v>
+        <v>0.5972533436153967</v>
       </c>
       <c r="I25">
-        <v>1.384342210672699</v>
+        <v>4.426612049147087</v>
       </c>
       <c r="J25">
-        <v>1.197570105645576</v>
+        <v>3.829384250858781</v>
       </c>
       <c r="K25">
-        <v>1.58609851662974</v>
+        <v>5.071753754756759</v>
       </c>
       <c r="L25">
-        <v>5.934663295676575</v>
+        <v>18.97684824585909</v>
       </c>
       <c r="M25">
-        <v>3.734402844946294</v>
+        <v>11.94123281249625</v>
       </c>
       <c r="N25">
-        <v>0.05290629240943735</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O25">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P25">
-        <v>24.0506015981019</v>
+        <v>76.90488811408866</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1668,49 +1668,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.8495500627347666</v>
+        <v>2.71654545751947</v>
       </c>
       <c r="C26">
-        <v>5.694184572211719</v>
+        <v>18.20788663604458</v>
       </c>
       <c r="D26">
-        <v>0.003585935291180671</v>
+        <v>0.01146648873741171</v>
       </c>
       <c r="E26">
-        <v>0.3410863163699059</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="F26">
-        <v>1.031285546468839</v>
+        <v>3.297668012226446</v>
       </c>
       <c r="G26">
-        <v>1.675416980884046</v>
+        <v>5.357361017925665</v>
       </c>
       <c r="H26">
-        <v>0.1315950661303392</v>
+        <v>0.4207921284563023</v>
       </c>
       <c r="I26">
-        <v>0.9753320120648559</v>
+        <v>3.11874939826272</v>
       </c>
       <c r="J26">
-        <v>1.522996764788396</v>
+        <v>4.869977797287798</v>
       </c>
       <c r="K26">
-        <v>2.017103548322605</v>
+        <v>6.449947709853703</v>
       </c>
       <c r="L26">
-        <v>6.209416226031973</v>
+        <v>19.85540603501924</v>
       </c>
       <c r="M26">
-        <v>3.907291865545659</v>
+        <v>12.49406766492663</v>
       </c>
       <c r="N26">
-        <v>0.08546401081524491</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O26">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P26">
-        <v>24.7995023762336</v>
+        <v>79.2995945548339</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1718,49 +1718,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.9160410369403778</v>
+        <v>2.92915888887259</v>
       </c>
       <c r="C27">
-        <v>6.139846218441412</v>
+        <v>19.63294699888973</v>
       </c>
       <c r="D27">
-        <v>0.003884763232112393</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E27">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F27">
-        <v>1.642417722154077</v>
+        <v>5.251841649101378</v>
       </c>
       <c r="G27">
-        <v>2.668256673259777</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="H27">
-        <v>0.1910250959956538</v>
+        <v>0.6108272832430193</v>
       </c>
       <c r="I27">
-        <v>1.415804533642532</v>
+        <v>4.527216868445885</v>
       </c>
       <c r="J27">
-        <v>1.470928499325545</v>
+        <v>4.703482829859155</v>
       </c>
       <c r="K27">
-        <v>1.948142743251746</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="L27">
-        <v>4.835651574254983</v>
+        <v>15.46261708921852</v>
       </c>
       <c r="M27">
-        <v>3.042846762548832</v>
+        <v>9.729893402774723</v>
       </c>
       <c r="N27">
-        <v>0.06104572201088925</v>
+        <v>0.1952015379715787</v>
       </c>
       <c r="O27">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="P27">
-        <v>24.95911114153539</v>
+        <v>79.80996408498864</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1768,49 +1768,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.9411030195255693</v>
+        <v>3.009297797613382</v>
       </c>
       <c r="C28">
-        <v>6.30782637740491</v>
+        <v>20.17008513565445</v>
       </c>
       <c r="D28">
-        <v>0.003386716663892856</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E28">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F28">
-        <v>1.699711363624569</v>
+        <v>5.435045427558407</v>
       </c>
       <c r="G28">
-        <v>2.761335394420001</v>
+        <v>8.829724640655263</v>
       </c>
       <c r="H28">
-        <v>0.152820076796523</v>
+        <v>0.4886618265944154</v>
       </c>
       <c r="I28">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="J28">
-        <v>1.438385833411264</v>
+        <v>4.599423475216253</v>
       </c>
       <c r="K28">
-        <v>1.90504224008246</v>
+        <v>6.091617281528498</v>
       </c>
       <c r="L28">
-        <v>5.714860951392259</v>
+        <v>18.27400201453098</v>
       </c>
       <c r="M28">
-        <v>3.596091628466801</v>
+        <v>11.49896493055195</v>
       </c>
       <c r="N28">
-        <v>0.06104572201088925</v>
+        <v>0.1952015379715787</v>
       </c>
       <c r="O28">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="P28">
-        <v>26.29009964769479</v>
+        <v>84.06597081021775</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1818,49 +1818,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.086360224713211</v>
+        <v>3.473776370723272</v>
       </c>
       <c r="C29">
-        <v>7.281425666091322</v>
+        <v>23.28329392833155</v>
       </c>
       <c r="D29">
-        <v>0.003287107350248949</v>
+        <v>0.01051094800929407</v>
       </c>
       <c r="E29">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="F29">
-        <v>1.279557992840967</v>
+        <v>4.091551052206887</v>
       </c>
       <c r="G29">
-        <v>2.078758105911687</v>
+        <v>6.647096077796659</v>
       </c>
       <c r="H29">
-        <v>0.2080051045286008</v>
+        <v>0.6651230417535102</v>
       </c>
       <c r="I29">
-        <v>1.541653825521869</v>
+        <v>4.929636145641075</v>
       </c>
       <c r="J29">
-        <v>1.347266368851274</v>
+        <v>4.308057282216129</v>
       </c>
       <c r="K29">
-        <v>1.784360831208458</v>
+        <v>5.705722974101356</v>
       </c>
       <c r="L29">
-        <v>3.901491611046637</v>
+        <v>12.47552060607404</v>
       </c>
       <c r="M29">
-        <v>2.45502409251099</v>
+        <v>7.850254904511428</v>
       </c>
       <c r="N29">
-        <v>0.07732458121379304</v>
+        <v>0.2472552814306663</v>
       </c>
       <c r="O29">
-        <v>0.321365519186059</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="P29">
-        <v>23.67854348764753</v>
+        <v>75.71518451188481</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1868,49 +1868,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.298619873138816</v>
+        <v>4.15250386311977</v>
       </c>
       <c r="C30">
-        <v>8.704114767516884</v>
+        <v>27.8325250866449</v>
       </c>
       <c r="D30">
-        <v>0.002789060782029411</v>
+        <v>0.008918380129098</v>
       </c>
       <c r="E30">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="F30">
-        <v>1.317753753821295</v>
+        <v>4.213686904511571</v>
       </c>
       <c r="G30">
-        <v>2.14081058668517</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="H30">
-        <v>0.2929051471933358</v>
+        <v>0.9366018343059632</v>
       </c>
       <c r="I30">
-        <v>2.170900284918551</v>
+        <v>6.941732531617025</v>
       </c>
       <c r="J30">
-        <v>1.165027439731294</v>
+        <v>3.725324896215879</v>
       </c>
       <c r="K30">
-        <v>1.542998013460454</v>
+        <v>4.933934359247065</v>
       </c>
       <c r="L30">
-        <v>2.362875201056414</v>
+        <v>7.555596986777231</v>
       </c>
       <c r="M30">
-        <v>1.486845577154543</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="N30">
-        <v>0.04883657760871139</v>
+        <v>0.156161230377263</v>
       </c>
       <c r="O30">
-        <v>0.2029676963280372</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="P30">
-        <v>23.00273333657213</v>
+        <v>73.55419474026425</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1918,49 +1918,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.356927342826812</v>
+        <v>4.338949487537119</v>
       </c>
       <c r="C31">
-        <v>9.094925749595236</v>
+        <v>29.0821934048322</v>
       </c>
       <c r="D31">
-        <v>0.003386716663892856</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E31">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F31">
-        <v>1.088579187939331</v>
+        <v>3.480871790683471</v>
       </c>
       <c r="G31">
-        <v>1.768495702044271</v>
+        <v>5.654992185588199</v>
       </c>
       <c r="H31">
-        <v>0.3396001706589399</v>
+        <v>1.085915170209812</v>
       </c>
       <c r="I31">
-        <v>2.516985837586724</v>
+        <v>8.048385543903795</v>
       </c>
       <c r="J31">
-        <v>0.8396007805884748</v>
+        <v>2.684731349786863</v>
       </c>
       <c r="K31">
-        <v>1.11199298176759</v>
+        <v>3.555740404150118</v>
       </c>
       <c r="L31">
-        <v>1.099011721421588</v>
+        <v>3.514231156640572</v>
       </c>
       <c r="M31">
-        <v>0.6915560823974619</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="N31">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O31">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P31">
-        <v>20.27516672905135</v>
+        <v>64.8324501336069</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1968,49 +1968,49 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.022426595669354</v>
+        <v>3.269340379037581</v>
       </c>
       <c r="C32">
-        <v>6.852904852408923</v>
+        <v>21.91304357944197</v>
       </c>
       <c r="D32">
-        <v>0.001792967645590335</v>
+        <v>0.005733244368705854</v>
       </c>
       <c r="E32">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="F32">
-        <v>0.7448173391163841</v>
+        <v>2.381649119941323</v>
       </c>
       <c r="G32">
-        <v>1.210023375082922</v>
+        <v>3.86920517961298</v>
       </c>
       <c r="H32">
-        <v>0.2377201194612581</v>
+        <v>0.7601406191468687</v>
       </c>
       <c r="I32">
-        <v>1.761890086310707</v>
+        <v>5.633869880732657</v>
       </c>
       <c r="J32">
-        <v>0.4881399887142296</v>
+        <v>1.560890319643525</v>
       </c>
       <c r="K32">
-        <v>0.6465075475392963</v>
+        <v>2.067290932645418</v>
       </c>
       <c r="L32">
-        <v>1.428715237848065</v>
+        <v>4.568500503632746</v>
       </c>
       <c r="M32">
-        <v>0.8990229071167003</v>
+        <v>2.874741232637986</v>
       </c>
       <c r="N32">
-        <v>0.02034857400362975</v>
+        <v>0.06506717932385955</v>
       </c>
       <c r="O32">
-        <v>0.08456987347001552</v>
+        <v>0.2704230341392986</v>
       </c>
       <c r="P32">
-        <v>15.56942262257203</v>
+        <v>49.78522886031926</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2018,49 +2018,49 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.7958458143379267</v>
+        <v>2.544819224503489</v>
       </c>
       <c r="C33">
-        <v>5.334227088718499</v>
+        <v>17.05687634297735</v>
       </c>
       <c r="D33">
-        <v>0.003187498036605041</v>
+        <v>0.01019243443325485</v>
       </c>
       <c r="E33">
-        <v>0.3031878367732497</v>
+        <v>0.9694820551365971</v>
       </c>
       <c r="F33">
-        <v>0.7830131000967114</v>
+        <v>2.503784972246006</v>
       </c>
       <c r="G33">
-        <v>1.272075855856405</v>
+        <v>4.067625958054672</v>
       </c>
       <c r="H33">
-        <v>0.3098851557262828</v>
+        <v>0.9908975928164536</v>
       </c>
       <c r="I33">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="J33">
-        <v>0.4230546568856657</v>
+        <v>1.352771610357721</v>
       </c>
       <c r="K33">
-        <v>0.5603065412007233</v>
+        <v>1.791652141626029</v>
       </c>
       <c r="L33">
-        <v>0.8242587910661915</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M33">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N33">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O33">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P33">
-        <v>13.48741004577843</v>
+        <v>43.12772619381326</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2068,49 +2068,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.6403592285032679</v>
+        <v>2.047630892723889</v>
       </c>
       <c r="C34">
-        <v>4.292064469842908</v>
+        <v>13.72442749447791</v>
       </c>
       <c r="D34">
-        <v>0.002191404900165966</v>
+        <v>0.007007298672862713</v>
       </c>
       <c r="E34">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="F34">
-        <v>0.6302300561754016</v>
+        <v>2.015241563027273</v>
       </c>
       <c r="G34">
-        <v>1.023865932762472</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="H34">
-        <v>0.1995151002621272</v>
+        <v>0.6379751624982648</v>
       </c>
       <c r="I34">
-        <v>1.478729179582201</v>
+        <v>4.728426507043481</v>
       </c>
       <c r="J34">
-        <v>0.2408157277656866</v>
+        <v>0.7700392243574723</v>
       </c>
       <c r="K34">
-        <v>0.3189437234527195</v>
+        <v>1.01986352677174</v>
       </c>
       <c r="L34">
-        <v>0.7693082049951119</v>
+        <v>2.459961809648402</v>
       </c>
       <c r="M34">
-        <v>0.4840892576782232</v>
+        <v>1.54793758680507</v>
       </c>
       <c r="N34">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O34">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P34">
-        <v>10.33052130269135</v>
+        <v>33.03316890860595</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2118,49 +2118,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.45571890782461</v>
+        <v>1.45721974873561</v>
       </c>
       <c r="C35">
-        <v>3.05449635992814</v>
+        <v>9.767144486884838</v>
       </c>
       <c r="D35">
-        <v>0.002988279409317227</v>
+        <v>0.009555407281176426</v>
       </c>
       <c r="E35">
-        <v>0.2842385969749217</v>
+        <v>0.9088894266905598</v>
       </c>
       <c r="F35">
-        <v>0.4774470122540923</v>
+        <v>1.52669815380854</v>
       </c>
       <c r="G35">
-        <v>0.7756560096685398</v>
+        <v>2.480259730521141</v>
       </c>
       <c r="H35">
-        <v>0.118860059730629</v>
+        <v>0.3800703095734344</v>
       </c>
       <c r="I35">
-        <v>0.8809450431553534</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="J35">
-        <v>0.2082730618514046</v>
+        <v>0.6659798697145706</v>
       </c>
       <c r="K35">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="L35">
-        <v>0.8242587910661915</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M35">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N35">
-        <v>0.01220914440217785</v>
+        <v>0.03904030759431574</v>
       </c>
       <c r="O35">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="P35">
-        <v>7.940343472428915</v>
+        <v>25.39026825768771</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2168,49 +2168,49 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.2721015252106538</v>
+        <v>0.8700795806143039</v>
       </c>
       <c r="C36">
-        <v>1.82378458303229</v>
+        <v>5.831785484874003</v>
       </c>
       <c r="D36">
-        <v>0.003884763232112393</v>
+        <v>0.01242202946552935</v>
       </c>
       <c r="E36">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="F36">
-        <v>0.1718809244114732</v>
+        <v>0.5496113353710748</v>
       </c>
       <c r="G36">
-        <v>0.2792361634806743</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="H36">
-        <v>0.07216503626502474</v>
+        <v>0.2307569736695851</v>
       </c>
       <c r="I36">
-        <v>0.5348594904871787</v>
+        <v>1.710281928079556</v>
       </c>
       <c r="J36">
-        <v>0.1952559954856919</v>
+        <v>0.6243561278574099</v>
       </c>
       <c r="K36">
-        <v>0.2586030190157185</v>
+        <v>0.8269163730581672</v>
       </c>
       <c r="L36">
-        <v>0.6044564467818729</v>
+        <v>1.932827136152315</v>
       </c>
       <c r="M36">
-        <v>0.3803558453186041</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="N36">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O36">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P36">
-        <v>4.987077658283423</v>
+        <v>15.94682144486675</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2218,49 +2218,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.2178858077814633</v>
+        <v>0.6967178596648372</v>
       </c>
       <c r="C37">
-        <v>1.460398933029616</v>
+        <v>4.669813189015648</v>
       </c>
       <c r="D37">
-        <v>0.002888670095673318</v>
+        <v>0.00923689370513721</v>
       </c>
       <c r="E37">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="F37">
-        <v>0.1527830439213095</v>
+        <v>0.4885434092187331</v>
       </c>
       <c r="G37">
-        <v>0.2482099230939327</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="H37">
-        <v>0.04669502346560424</v>
+        <v>0.1493133359038492</v>
       </c>
       <c r="I37">
-        <v>0.3460855526681746</v>
+        <v>1.106653012286772</v>
       </c>
       <c r="J37">
-        <v>0.182238929119979</v>
+        <v>0.5827323860002491</v>
       </c>
       <c r="K37">
-        <v>0.241362817748004</v>
+        <v>0.7717886148542895</v>
       </c>
       <c r="L37">
-        <v>0.7143576189240324</v>
+        <v>2.284250251816373</v>
       </c>
       <c r="M37">
-        <v>0.4495114535583501</v>
+        <v>1.437370616318993</v>
       </c>
       <c r="N37">
-        <v>0.02034857400362975</v>
+        <v>0.06506717932385955</v>
       </c>
       <c r="O37">
-        <v>0.08456987347001552</v>
+        <v>0.2704230341392986</v>
       </c>
       <c r="P37">
-        <v>4.442100197955543</v>
+        <v>14.20418600848235</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2268,49 +2268,49 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.1145690632465911</v>
+        <v>0.3663492971007594</v>
       </c>
       <c r="C38">
-        <v>0.7679092981188596</v>
+        <v>2.455488625210107</v>
       </c>
       <c r="D38">
-        <v>0.003386716663892856</v>
+        <v>0.01082946158533328</v>
       </c>
       <c r="E38">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="F38">
-        <v>0.1145872829409822</v>
+        <v>0.3664075569140497</v>
       </c>
       <c r="G38">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H38">
-        <v>0.0084900042664735</v>
+        <v>0.0271478792552453</v>
       </c>
       <c r="I38">
-        <v>0.06292464593966812</v>
+        <v>0.2012096385975949</v>
       </c>
       <c r="J38">
-        <v>0.1692218627542663</v>
+        <v>0.5411086441430887</v>
       </c>
       <c r="K38">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="L38">
-        <v>1.208912893563746</v>
+        <v>3.865654272304631</v>
       </c>
       <c r="M38">
-        <v>0.7607116906372081</v>
+        <v>2.432473350693681</v>
       </c>
       <c r="N38">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O38">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P38">
-        <v>3.964114282998734</v>
+        <v>12.67576464405524</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2318,49 +2318,49 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.07569741678792624</v>
+        <v>0.242052214155859</v>
       </c>
       <c r="C39">
-        <v>0.5073686433999604</v>
+        <v>1.622376413085249</v>
       </c>
       <c r="D39">
-        <v>0.001892576959234243</v>
+        <v>0.006051757944745071</v>
       </c>
       <c r="E39">
-        <v>0.1800177780841171</v>
+        <v>0.5756299702373545</v>
       </c>
       <c r="F39">
-        <v>0.1145872829409822</v>
+        <v>0.3664075569140497</v>
       </c>
       <c r="G39">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="H39">
-        <v>0.0084900042664735</v>
+        <v>0.0271478792552453</v>
       </c>
       <c r="I39">
-        <v>0.06292464593966812</v>
+        <v>0.2012096385975949</v>
       </c>
       <c r="J39">
-        <v>0.1041365309257023</v>
+        <v>0.3329899348572853</v>
       </c>
       <c r="K39">
-        <v>0.1379216101417166</v>
+        <v>0.4410220656310224</v>
       </c>
       <c r="L39">
-        <v>0.8242587910661915</v>
+        <v>2.63567336748043</v>
       </c>
       <c r="M39">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="N39">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O39">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P39">
-        <v>2.743103474125247</v>
+        <v>8.771425733467687</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2368,49 +2368,49 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.07569741678792624</v>
+        <v>0.242052214155859</v>
       </c>
       <c r="C40">
-        <v>0.5073686433999604</v>
+        <v>1.622376413085249</v>
       </c>
       <c r="D40">
-        <v>0.00119531176372689</v>
+        <v>0.003822162912470571</v>
       </c>
       <c r="E40">
-        <v>0.1136954387899687</v>
+        <v>0.3635557706762239</v>
       </c>
       <c r="F40">
-        <v>0.1336851634311459</v>
+        <v>0.4274754830663912</v>
       </c>
       <c r="G40">
-        <v>0.2171836827071911</v>
+        <v>0.6944727245459195</v>
       </c>
       <c r="H40">
-        <v>0.02547001279942049</v>
+        <v>0.08144363776573593</v>
       </c>
       <c r="I40">
-        <v>0.1887739378190043</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="J40">
-        <v>0.1757303959371226</v>
+        <v>0.561920515071669</v>
       </c>
       <c r="K40">
-        <v>0.2327427171141467</v>
+        <v>0.7442247357523505</v>
       </c>
       <c r="L40">
-        <v>1.318814065705906</v>
+        <v>4.217077387968688</v>
       </c>
       <c r="M40">
-        <v>0.8298672988769544</v>
+        <v>2.653607291665834</v>
       </c>
       <c r="N40">
-        <v>0.00406971480072595</v>
+        <v>0.01301343586477191</v>
       </c>
       <c r="O40">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="P40">
-        <v>3.841207774627202</v>
+        <v>12.28275529515181</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2418,49 +2418,49 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.1744109400316408</v>
+        <v>0.5577013853185671</v>
       </c>
       <c r="C41">
-        <v>1.169004779725584</v>
+        <v>3.738042951770743</v>
       </c>
       <c r="D41">
-        <v>0.0009960931364390753</v>
+        <v>0.003185135760392143</v>
       </c>
       <c r="E41">
-        <v>0.09474619899164059</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="F41">
-        <v>0.3246639683327827</v>
+        <v>1.038154744589807</v>
       </c>
       <c r="G41">
-        <v>0.5274460865746069</v>
+        <v>1.686576616754376</v>
       </c>
       <c r="H41">
-        <v>0.02547001279942049</v>
+        <v>0.08144363776573593</v>
       </c>
       <c r="I41">
-        <v>0.1887739378190043</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="J41">
-        <v>0.2733583936799686</v>
+        <v>0.8740985790003737</v>
       </c>
       <c r="K41">
-        <v>0.3620442266220059</v>
+        <v>1.157682922281434</v>
       </c>
       <c r="L41">
-        <v>2.527726959269652</v>
+        <v>8.082731660273316</v>
       </c>
       <c r="M41">
-        <v>1.590578989514162</v>
+        <v>5.086080642359514</v>
       </c>
       <c r="N41">
-        <v>0.008139429601451901</v>
+        <v>0.02602687172954382</v>
       </c>
       <c r="O41">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="P41">
-        <v>7.301187965486364</v>
+        <v>23.34648641928249</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2468,49 +2468,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.3703035794220175</v>
+        <v>1.184093263843526</v>
       </c>
       <c r="C42">
-        <v>2.481992552848456</v>
+        <v>7.936490020768378</v>
       </c>
       <c r="D42">
-        <v>0.0002988279409317226</v>
+        <v>0.0009555407281176427</v>
       </c>
       <c r="E42">
-        <v>0.02842385969749217</v>
+        <v>0.09088894266905598</v>
       </c>
       <c r="F42">
-        <v>0.439251251273765</v>
+        <v>1.404562301503857</v>
       </c>
       <c r="G42">
-        <v>0.7136035288950564</v>
+        <v>2.28183895207945</v>
       </c>
       <c r="H42">
-        <v>0.16980008532947</v>
+        <v>0.5429575851049062</v>
       </c>
       <c r="I42">
-        <v>1.258492918793362</v>
+        <v>4.024192771951897</v>
       </c>
       <c r="J42">
-        <v>0.5467167873599371</v>
+        <v>1.748197158000747</v>
       </c>
       <c r="K42">
-        <v>0.7240884532440118</v>
+        <v>2.315365844562868</v>
       </c>
       <c r="L42">
-        <v>2.80247988962505</v>
+        <v>8.961289449433458</v>
       </c>
       <c r="M42">
-        <v>1.763468010113528</v>
+        <v>5.638915494789897</v>
       </c>
       <c r="N42">
-        <v>0.0162788592029038</v>
+        <v>0.05205374345908764</v>
       </c>
       <c r="O42">
-        <v>0.06765589877601241</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="P42">
-        <v>11.38285450252199</v>
+        <v>36.3981394962067</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2518,49 +2518,49 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.6858799723824938</v>
+        <v>2.193189318804101</v>
       </c>
       <c r="C43">
-        <v>4.597171289184777</v>
+        <v>14.70004574288729</v>
       </c>
       <c r="D43">
-        <v>0.001394530391014705</v>
+        <v>0.004459190064549</v>
       </c>
       <c r="E43">
-        <v>0.1326446785882968</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="F43">
-        <v>1.069481307449167</v>
+        <v>3.41980386453113</v>
       </c>
       <c r="G43">
-        <v>1.737469461657529</v>
+        <v>5.555781796367356</v>
       </c>
       <c r="H43">
-        <v>0.4075202047907279</v>
+        <v>1.303098204251775</v>
       </c>
       <c r="I43">
-        <v>3.020383005104069</v>
+        <v>9.658062652684553</v>
       </c>
       <c r="J43">
-        <v>1.184553039279864</v>
+        <v>3.78776050900162</v>
       </c>
       <c r="K43">
-        <v>1.568858315362026</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="L43">
-        <v>3.901491611046637</v>
+        <v>12.47552060607404</v>
       </c>
       <c r="M43">
-        <v>2.45502409251099</v>
+        <v>7.850254904511428</v>
       </c>
       <c r="N43">
-        <v>0.05697600721016328</v>
+        <v>0.1821881021068068</v>
       </c>
       <c r="O43">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="P43">
-        <v>21.0556431606738</v>
+        <v>67.32812378254982</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2568,49 +2568,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.160011765371734</v>
+        <v>3.709286633145189</v>
       </c>
       <c r="C44">
-        <v>7.775081643453447</v>
+        <v>24.86182233025232</v>
       </c>
       <c r="D44">
-        <v>0.00119531176372689</v>
+        <v>0.003822162912470571</v>
       </c>
       <c r="E44">
-        <v>0.1136954387899687</v>
+        <v>0.3635557706762239</v>
       </c>
       <c r="F44">
-        <v>1.24136223186064</v>
+        <v>3.969415199902205</v>
       </c>
       <c r="G44">
-        <v>2.016705625138203</v>
+        <v>6.448675299354967</v>
       </c>
       <c r="H44">
-        <v>0.4754402389225161</v>
+        <v>1.520281238293737</v>
       </c>
       <c r="I44">
-        <v>3.523780172621414</v>
+        <v>11.26773976146531</v>
       </c>
       <c r="J44">
-        <v>1.26265543747414</v>
+        <v>4.037502960144586</v>
       </c>
       <c r="K44">
-        <v>1.672299522968313</v>
+        <v>5.347392545776148</v>
       </c>
       <c r="L44">
-        <v>5.385157434965781</v>
+        <v>17.21973266753881</v>
       </c>
       <c r="M44">
-        <v>3.388624803747564</v>
+        <v>10.83556310763549</v>
       </c>
       <c r="N44">
-        <v>0.08546401081524491</v>
+        <v>0.27328215316021</v>
       </c>
       <c r="O44">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="P44">
-        <v>28.45666710646676</v>
+        <v>90.99384857364272</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2618,49 +2618,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.311918067979937</v>
+        <v>4.195026549390392</v>
       </c>
       <c r="C45">
-        <v>8.79324709676283</v>
+        <v>28.11753715921394</v>
       </c>
       <c r="D45">
-        <v>0.003486325977536763</v>
+        <v>0.0111479751613725</v>
       </c>
       <c r="E45">
-        <v>0.3316116964707419</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="F45">
-        <v>1.508732558722931</v>
+        <v>4.824366166034989</v>
       </c>
       <c r="G45">
-        <v>2.451072990552585</v>
+        <v>7.837620748446807</v>
       </c>
       <c r="H45">
-        <v>0.3396001706589399</v>
+        <v>1.085915170209812</v>
       </c>
       <c r="I45">
-        <v>2.516985837586724</v>
+        <v>8.048385543903795</v>
       </c>
       <c r="J45">
-        <v>1.42536876704555</v>
+        <v>4.557799733359093</v>
       </c>
       <c r="K45">
-        <v>1.887802038814745</v>
+        <v>6.03648952332462</v>
       </c>
       <c r="L45">
-        <v>5.879712709605493</v>
+        <v>18.80113668802706</v>
       </c>
       <c r="M45">
-        <v>3.699825040826421</v>
+        <v>11.83066584201018</v>
       </c>
       <c r="N45">
-        <v>0.06918515161234116</v>
+        <v>0.2212284097011225</v>
       </c>
       <c r="O45">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="P45">
-        <v>30.50608602241483</v>
+        <v>97.54712882266243</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2668,49 +2668,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.050557392448652</v>
+        <v>3.359292215379286</v>
       </c>
       <c r="C46">
-        <v>7.041454010429177</v>
+        <v>22.51595373295339</v>
       </c>
       <c r="D46">
-        <v>0.004283200486688024</v>
+        <v>0.01369608376968621</v>
       </c>
       <c r="E46">
-        <v>0.4074086556640544</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="F46">
-        <v>1.75700500509506</v>
+        <v>5.618249206015428</v>
       </c>
       <c r="G46">
-        <v>2.854414115580226</v>
+        <v>9.1273558083178</v>
       </c>
       <c r="H46">
-        <v>0.2377201194612581</v>
+        <v>0.7601406191468687</v>
       </c>
       <c r="I46">
-        <v>1.761890086310707</v>
+        <v>5.633869880732657</v>
       </c>
       <c r="J46">
-        <v>1.724761293456945</v>
+        <v>5.515145796073789</v>
       </c>
       <c r="K46">
-        <v>2.28432666797218</v>
+        <v>7.30442796201381</v>
       </c>
       <c r="L46">
-        <v>8.956945529585946</v>
+        <v>28.64098392662067</v>
       </c>
       <c r="M46">
-        <v>5.636182071539312</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="N46">
-        <v>0.06918515161234116</v>
+        <v>0.2212284097011225</v>
       </c>
       <c r="O46">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="P46">
-        <v>34.0736708694406</v>
+        <v>108.9549396576184</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2718,49 +2718,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.793288469176173</v>
+        <v>2.536641784836061</v>
       </c>
       <c r="C47">
-        <v>5.31708625617121</v>
+        <v>17.00206632902177</v>
       </c>
       <c r="D47">
-        <v>0.004781247054907561</v>
+        <v>0.01528865164988228</v>
       </c>
       <c r="E47">
-        <v>0.4547817551598747</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="F47">
-        <v>1.298655873331131</v>
+        <v>4.152618978359229</v>
       </c>
       <c r="G47">
-        <v>2.109784346298428</v>
+        <v>6.746306467017504</v>
       </c>
       <c r="H47">
-        <v>0.1570650789297598</v>
+        <v>0.5022357662220382</v>
       </c>
       <c r="I47">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="J47">
-        <v>1.84191489074836</v>
+        <v>5.889759472788234</v>
       </c>
       <c r="K47">
-        <v>2.439488479381612</v>
+        <v>7.80057778584871</v>
       </c>
       <c r="L47">
-        <v>6.813872672813843</v>
+        <v>21.78823317117156</v>
       </c>
       <c r="M47">
-        <v>4.287647710864264</v>
+        <v>13.71030434027347</v>
       </c>
       <c r="N47">
-        <v>0.05290629240943735</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O47">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P47">
-        <v>26.9552606932449</v>
+        <v>86.19290869895306</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2768,49 +2768,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.8183504517613643</v>
+        <v>2.616780693576853</v>
       </c>
       <c r="C48">
-        <v>5.485066415134705</v>
+        <v>17.53920446578648</v>
       </c>
       <c r="D48">
-        <v>0.002888670095673318</v>
+        <v>0.00923689370513721</v>
       </c>
       <c r="E48">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="F48">
-        <v>1.413243156272114</v>
+        <v>4.519026535273277</v>
       </c>
       <c r="G48">
-        <v>2.295941788618877</v>
+        <v>7.341568802342575</v>
       </c>
       <c r="H48">
-        <v>0.1740450874627067</v>
+        <v>0.556531524732529</v>
       </c>
       <c r="I48">
-        <v>1.289955241763197</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="J48">
-        <v>1.880966089845498</v>
+        <v>6.014630698359714</v>
       </c>
       <c r="K48">
-        <v>2.491209083184756</v>
+        <v>7.965961060460343</v>
       </c>
       <c r="L48">
-        <v>9.781204320652131</v>
+        <v>31.27665729410109</v>
       </c>
       <c r="M48">
-        <v>6.15484913333741</v>
+        <v>19.6809207465216</v>
       </c>
       <c r="N48">
-        <v>0.04476686280798545</v>
+        <v>0.1431477945124911</v>
       </c>
       <c r="O48">
-        <v>0.1860537216340341</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="P48">
-        <v>32.29330399964621</v>
+        <v>103.2619878881968</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2818,49 +2818,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.8444353724112581</v>
+        <v>2.700190578184618</v>
       </c>
       <c r="C49">
-        <v>5.659902907117127</v>
+        <v>18.09826660813342</v>
       </c>
       <c r="D49">
-        <v>0.004083981859400209</v>
+        <v>0.01305905661760778</v>
       </c>
       <c r="E49">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="F49">
-        <v>1.088579187939331</v>
+        <v>3.480871790683471</v>
       </c>
       <c r="G49">
-        <v>1.768495702044271</v>
+        <v>5.654992185588199</v>
       </c>
       <c r="H49">
-        <v>0.186780093862417</v>
+        <v>0.5972533436153967</v>
       </c>
       <c r="I49">
-        <v>1.384342210672699</v>
+        <v>4.426612049147087</v>
       </c>
       <c r="J49">
-        <v>1.197570105645576</v>
+        <v>3.829384250858781</v>
       </c>
       <c r="K49">
-        <v>1.58609851662974</v>
+        <v>5.071753754756759</v>
       </c>
       <c r="L49">
-        <v>5.934663295676575</v>
+        <v>18.97684824585909</v>
       </c>
       <c r="M49">
-        <v>3.734402844946294</v>
+        <v>11.94123281249625</v>
       </c>
       <c r="N49">
-        <v>0.05290629240943735</v>
+        <v>0.1691746662420349</v>
       </c>
       <c r="O49">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="P49">
-        <v>24.0506015981019</v>
+        <v>76.90488811408866</v>
       </c>
     </row>
   </sheetData>
